--- a/original/Early_Experience_Original.xlsx
+++ b/original/Early_Experience_Original.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngomae/MyGithub/early_experience/data/original/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngomae/MyGithub/early_experience/original/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9648D77A-7CA6-3244-9F34-7DF66191A0C5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5257F3C-50F9-6646-80A9-671E4CAF6E0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4040" yWindow="1300" windowWidth="24760" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="to_print" sheetId="3" r:id="rId2"/>
     <sheet name="Diet_order" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -25,12 +25,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="39">
   <si>
     <t>collectedEggs</t>
   </si>
@@ -144,6 +150,9 @@
   </si>
   <si>
     <t>male</t>
+  </si>
+  <si>
+    <t>censored</t>
   </si>
 </sst>
 </file>
@@ -608,10 +617,10 @@
   <dimension ref="A1:N355"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F329" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D357" sqref="D357"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -655,7 +664,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>10</v>

--- a/original/Early_Experience_Original.xlsx
+++ b/original/Early_Experience_Original.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngomae/MyGithub/early_experience/original/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5257F3C-50F9-6646-80A9-671E4CAF6E0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A931133-D5E9-A744-A455-C5FA115E5E77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4040" yWindow="1300" windowWidth="24760" windowHeight="16700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,19 +17,13 @@
     <sheet name="to_print" sheetId="3" r:id="rId2"/>
     <sheet name="Diet_order" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -202,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +206,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -288,7 +288,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -300,6 +299,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,10 +623,10 @@
   <dimension ref="A1:N355"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F256" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="A144" sqref="A144:XFD144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -726,7 +732,7 @@
         <v>43152</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D9" si="0">C3-B3</f>
+        <f>C3-B3</f>
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -765,7 +771,7 @@
         <v>43152</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
+        <f>C4-B4</f>
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -804,7 +810,7 @@
         <v>43152</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f>C5-B5</f>
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -843,7 +849,7 @@
         <v>43152</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f>C6-B6</f>
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -882,7 +888,7 @@
         <v>43152</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f>C7-B7</f>
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -921,7 +927,7 @@
         <v>43152</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f>C8-B8</f>
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -948,6 +954,7 @@
       <c r="L8" s="1">
         <v>166</v>
       </c>
+      <c r="M8" s="28"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -960,7 +967,7 @@
         <v>43152</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f>C9-B9</f>
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1038,7 +1045,7 @@
         <v>43154</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" ref="D11:D17" si="1">C11-B11</f>
+        <f>C11-B11</f>
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1077,7 +1084,7 @@
         <v>43154</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="1"/>
+        <f>C12-B12</f>
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1116,7 +1123,7 @@
         <v>43154</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="1"/>
+        <f>C13-B13</f>
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1155,7 +1162,7 @@
         <v>43154</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="1"/>
+        <f>C14-B14</f>
         <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1194,7 +1201,7 @@
         <v>43154</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="1"/>
+        <f>C15-B15</f>
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1233,7 +1240,7 @@
         <v>43154</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="1"/>
+        <f>C16-B16</f>
         <v>3</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1260,6 +1267,7 @@
       <c r="L16" s="1">
         <v>263</v>
       </c>
+      <c r="M16" s="28"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
@@ -1272,7 +1280,7 @@
         <v>43154</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="1"/>
+        <f>C17-B17</f>
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1350,7 +1358,7 @@
         <v>43157</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" ref="D19:D25" si="2">C19-B19</f>
+        <f>C19-B19</f>
         <v>6</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -1389,7 +1397,7 @@
         <v>43157</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="2"/>
+        <f>C20-B20</f>
         <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1428,7 +1436,7 @@
         <v>43157</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="2"/>
+        <f>C21-B21</f>
         <v>6</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -1467,7 +1475,7 @@
         <v>43157</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="2"/>
+        <f>C22-B22</f>
         <v>6</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -1506,7 +1514,7 @@
         <v>43157</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="2"/>
+        <f>C23-B23</f>
         <v>6</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -1545,7 +1553,7 @@
         <v>43157</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="2"/>
+        <f>C24-B24</f>
         <v>6</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -1584,7 +1592,7 @@
         <v>43157</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="2"/>
+        <f>C25-B25</f>
         <v>6</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -1662,7 +1670,7 @@
         <v>43159</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" ref="D27:D33" si="3">C27-B27</f>
+        <f>C27-B27</f>
         <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -1701,7 +1709,7 @@
         <v>43159</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="3"/>
+        <f>C28-B28</f>
         <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -1740,7 +1748,7 @@
         <v>43159</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="3"/>
+        <f>C29-B29</f>
         <v>8</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -1779,7 +1787,7 @@
         <v>43159</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="3"/>
+        <f>C30-B30</f>
         <v>8</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -1818,7 +1826,7 @@
         <v>43159</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="3"/>
+        <f>C31-B31</f>
         <v>8</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -1857,7 +1865,7 @@
         <v>43159</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="3"/>
+        <f>C32-B32</f>
         <v>8</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -1896,7 +1904,7 @@
         <v>43159</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="3"/>
+        <f>C33-B33</f>
         <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -1974,7 +1982,7 @@
         <v>43161</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ref="D35:D41" si="4">C35-B35</f>
+        <f>C35-B35</f>
         <v>10</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -2013,7 +2021,7 @@
         <v>43161</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="4"/>
+        <f>C36-B36</f>
         <v>10</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -2052,7 +2060,7 @@
         <v>43161</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="4"/>
+        <f>C37-B37</f>
         <v>10</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -2091,7 +2099,7 @@
         <v>43161</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="4"/>
+        <f>C38-B38</f>
         <v>10</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -2130,7 +2138,7 @@
         <v>43161</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="4"/>
+        <f>C39-B39</f>
         <v>10</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -2169,7 +2177,7 @@
         <v>43161</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="4"/>
+        <f>C40-B40</f>
         <v>10</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -2208,7 +2216,7 @@
         <v>43161</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="4"/>
+        <f>C41-B41</f>
         <v>10</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -2286,7 +2294,7 @@
         <v>43164</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" ref="D43:D49" si="5">C43-B43</f>
+        <f>C43-B43</f>
         <v>13</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -2325,7 +2333,7 @@
         <v>43164</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="5"/>
+        <f>C44-B44</f>
         <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -2364,7 +2372,7 @@
         <v>43164</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="5"/>
+        <f>C45-B45</f>
         <v>13</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -2403,7 +2411,7 @@
         <v>43164</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="5"/>
+        <f>C46-B46</f>
         <v>13</v>
       </c>
       <c r="E46" s="3" t="s">
@@ -2442,7 +2450,7 @@
         <v>43164</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="5"/>
+        <f>C47-B47</f>
         <v>13</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -2481,7 +2489,7 @@
         <v>43164</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="5"/>
+        <f>C48-B48</f>
         <v>13</v>
       </c>
       <c r="E48" s="3" t="s">
@@ -2520,7 +2528,7 @@
         <v>43164</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="5"/>
+        <f>C49-B49</f>
         <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -2598,7 +2606,7 @@
         <v>43166</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" ref="D51:D57" si="6">C51-B51</f>
+        <f>C51-B51</f>
         <v>15</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -2637,7 +2645,7 @@
         <v>43166</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="6"/>
+        <f>C52-B52</f>
         <v>15</v>
       </c>
       <c r="E52" s="1" t="s">
@@ -2676,7 +2684,7 @@
         <v>43166</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="6"/>
+        <f>C53-B53</f>
         <v>15</v>
       </c>
       <c r="E53" s="3" t="s">
@@ -2715,7 +2723,7 @@
         <v>43166</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="6"/>
+        <f>C54-B54</f>
         <v>15</v>
       </c>
       <c r="E54" s="3" t="s">
@@ -2754,7 +2762,7 @@
         <v>43166</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="6"/>
+        <f>C55-B55</f>
         <v>15</v>
       </c>
       <c r="E55" s="1" t="s">
@@ -2793,7 +2801,7 @@
         <v>43166</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="6"/>
+        <f>C56-B56</f>
         <v>15</v>
       </c>
       <c r="E56" s="3" t="s">
@@ -2832,7 +2840,7 @@
         <v>43166</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="6"/>
+        <f>C57-B57</f>
         <v>15</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -2910,7 +2918,7 @@
         <v>43168</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" ref="D59:D65" si="7">C59-B59</f>
+        <f>C59-B59</f>
         <v>17</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -2949,7 +2957,7 @@
         <v>43168</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="7"/>
+        <f>C60-B60</f>
         <v>17</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -2988,7 +2996,7 @@
         <v>43168</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="7"/>
+        <f>C61-B61</f>
         <v>17</v>
       </c>
       <c r="E61" s="3" t="s">
@@ -3027,7 +3035,7 @@
         <v>43168</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="7"/>
+        <f>C62-B62</f>
         <v>17</v>
       </c>
       <c r="E62" s="3" t="s">
@@ -3066,7 +3074,7 @@
         <v>43168</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="7"/>
+        <f>C63-B63</f>
         <v>17</v>
       </c>
       <c r="E63" s="1" t="s">
@@ -3105,7 +3113,7 @@
         <v>43168</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="7"/>
+        <f>C64-B64</f>
         <v>17</v>
       </c>
       <c r="E64" s="3" t="s">
@@ -3144,7 +3152,7 @@
         <v>43168</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="7"/>
+        <f>C65-B65</f>
         <v>17</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -3222,7 +3230,7 @@
         <v>43171</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" ref="D67:D73" si="8">C67-B67</f>
+        <f>C67-B67</f>
         <v>20</v>
       </c>
       <c r="E67" s="1" t="s">
@@ -3261,7 +3269,7 @@
         <v>43171</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="8"/>
+        <f>C68-B68</f>
         <v>20</v>
       </c>
       <c r="E68" s="1" t="s">
@@ -3300,7 +3308,7 @@
         <v>43171</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="8"/>
+        <f>C69-B69</f>
         <v>20</v>
       </c>
       <c r="E69" s="3" t="s">
@@ -3339,7 +3347,7 @@
         <v>43171</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="8"/>
+        <f>C70-B70</f>
         <v>20</v>
       </c>
       <c r="E70" s="3" t="s">
@@ -3378,7 +3386,7 @@
         <v>43171</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="8"/>
+        <f>C71-B71</f>
         <v>20</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -3417,7 +3425,7 @@
         <v>43171</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="8"/>
+        <f>C72-B72</f>
         <v>20</v>
       </c>
       <c r="E72" s="3" t="s">
@@ -3456,7 +3464,7 @@
         <v>43171</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="8"/>
+        <f>C73-B73</f>
         <v>20</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -3534,7 +3542,7 @@
         <v>43173</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" ref="D75:D81" si="9">C75-B75</f>
+        <f>C75-B75</f>
         <v>22</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -3573,7 +3581,7 @@
         <v>43173</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="9"/>
+        <f>C76-B76</f>
         <v>22</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -3612,7 +3620,7 @@
         <v>43173</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="9"/>
+        <f>C77-B77</f>
         <v>22</v>
       </c>
       <c r="E77" s="3" t="s">
@@ -3651,7 +3659,7 @@
         <v>43173</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="9"/>
+        <f>C78-B78</f>
         <v>22</v>
       </c>
       <c r="E78" s="3" t="s">
@@ -3690,7 +3698,7 @@
         <v>43173</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="9"/>
+        <f>C79-B79</f>
         <v>22</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -3729,7 +3737,7 @@
         <v>43173</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="9"/>
+        <f>C80-B80</f>
         <v>22</v>
       </c>
       <c r="E80" s="3" t="s">
@@ -3768,7 +3776,7 @@
         <v>43173</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="9"/>
+        <f>C81-B81</f>
         <v>22</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -3846,7 +3854,7 @@
         <v>43175</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" ref="D83:D89" si="10">C83-B83</f>
+        <f>C83-B83</f>
         <v>24</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -3885,7 +3893,7 @@
         <v>43175</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" si="10"/>
+        <f>C84-B84</f>
         <v>24</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -3924,7 +3932,7 @@
         <v>43175</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" si="10"/>
+        <f>C85-B85</f>
         <v>24</v>
       </c>
       <c r="E85" s="3" t="s">
@@ -3963,7 +3971,7 @@
         <v>43175</v>
       </c>
       <c r="D86" s="1">
-        <f t="shared" si="10"/>
+        <f>C86-B86</f>
         <v>24</v>
       </c>
       <c r="E86" s="3" t="s">
@@ -4002,7 +4010,7 @@
         <v>43175</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" si="10"/>
+        <f>C87-B87</f>
         <v>24</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -4041,7 +4049,7 @@
         <v>43175</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="10"/>
+        <f>C88-B88</f>
         <v>24</v>
       </c>
       <c r="E88" s="3" t="s">
@@ -4080,7 +4088,7 @@
         <v>43175</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" si="10"/>
+        <f>C89-B89</f>
         <v>24</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -4158,7 +4166,7 @@
         <v>43178</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" ref="D91:D97" si="11">C91-B91</f>
+        <f>C91-B91</f>
         <v>27</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -4197,7 +4205,7 @@
         <v>43178</v>
       </c>
       <c r="D92" s="1">
-        <f t="shared" si="11"/>
+        <f>C92-B92</f>
         <v>27</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -4236,7 +4244,7 @@
         <v>43178</v>
       </c>
       <c r="D93" s="1">
-        <f t="shared" si="11"/>
+        <f>C93-B93</f>
         <v>27</v>
       </c>
       <c r="E93" s="3" t="s">
@@ -4275,7 +4283,7 @@
         <v>43178</v>
       </c>
       <c r="D94" s="1">
-        <f t="shared" si="11"/>
+        <f>C94-B94</f>
         <v>27</v>
       </c>
       <c r="E94" s="3" t="s">
@@ -4314,7 +4322,7 @@
         <v>43178</v>
       </c>
       <c r="D95" s="1">
-        <f t="shared" si="11"/>
+        <f>C95-B95</f>
         <v>27</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -4353,7 +4361,7 @@
         <v>43178</v>
       </c>
       <c r="D96" s="1">
-        <f t="shared" si="11"/>
+        <f>C96-B96</f>
         <v>27</v>
       </c>
       <c r="E96" s="3" t="s">
@@ -4392,7 +4400,7 @@
         <v>43178</v>
       </c>
       <c r="D97" s="1">
-        <f t="shared" si="11"/>
+        <f>C97-B97</f>
         <v>27</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -4470,7 +4478,7 @@
         <v>43180</v>
       </c>
       <c r="D99" s="1">
-        <f t="shared" ref="D99:D105" si="12">C99-B99</f>
+        <f>C99-B99</f>
         <v>29</v>
       </c>
       <c r="E99" s="1" t="s">
@@ -4509,7 +4517,7 @@
         <v>43180</v>
       </c>
       <c r="D100" s="1">
-        <f t="shared" si="12"/>
+        <f>C100-B100</f>
         <v>29</v>
       </c>
       <c r="E100" s="1" t="s">
@@ -4548,7 +4556,7 @@
         <v>43180</v>
       </c>
       <c r="D101" s="1">
-        <f t="shared" si="12"/>
+        <f>C101-B101</f>
         <v>29</v>
       </c>
       <c r="E101" s="3" t="s">
@@ -4587,7 +4595,7 @@
         <v>43180</v>
       </c>
       <c r="D102" s="1">
-        <f t="shared" si="12"/>
+        <f>C102-B102</f>
         <v>29</v>
       </c>
       <c r="E102" s="3" t="s">
@@ -4626,7 +4634,7 @@
         <v>43180</v>
       </c>
       <c r="D103" s="1">
-        <f t="shared" si="12"/>
+        <f>C103-B103</f>
         <v>29</v>
       </c>
       <c r="E103" s="1" t="s">
@@ -4665,7 +4673,7 @@
         <v>43180</v>
       </c>
       <c r="D104" s="1">
-        <f t="shared" si="12"/>
+        <f>C104-B104</f>
         <v>29</v>
       </c>
       <c r="E104" s="3" t="s">
@@ -4704,7 +4712,7 @@
         <v>43180</v>
       </c>
       <c r="D105" s="1">
-        <f t="shared" si="12"/>
+        <f>C105-B105</f>
         <v>29</v>
       </c>
       <c r="E105" s="1" t="s">
@@ -4782,7 +4790,7 @@
         <v>43182</v>
       </c>
       <c r="D107" s="1">
-        <f t="shared" ref="D107:D113" si="13">C107-B107</f>
+        <f>C107-B107</f>
         <v>31</v>
       </c>
       <c r="E107" s="1" t="s">
@@ -4821,7 +4829,7 @@
         <v>43182</v>
       </c>
       <c r="D108" s="1">
-        <f t="shared" si="13"/>
+        <f>C108-B108</f>
         <v>31</v>
       </c>
       <c r="E108" s="1" t="s">
@@ -4860,7 +4868,7 @@
         <v>43182</v>
       </c>
       <c r="D109" s="1">
-        <f t="shared" si="13"/>
+        <f>C109-B109</f>
         <v>31</v>
       </c>
       <c r="E109" s="3" t="s">
@@ -4899,7 +4907,7 @@
         <v>43182</v>
       </c>
       <c r="D110" s="1">
-        <f t="shared" si="13"/>
+        <f>C110-B110</f>
         <v>31</v>
       </c>
       <c r="E110" s="3" t="s">
@@ -4938,7 +4946,7 @@
         <v>43182</v>
       </c>
       <c r="D111" s="1">
-        <f t="shared" si="13"/>
+        <f>C111-B111</f>
         <v>31</v>
       </c>
       <c r="E111" s="1" t="s">
@@ -4977,7 +4985,7 @@
         <v>43182</v>
       </c>
       <c r="D112" s="1">
-        <f t="shared" si="13"/>
+        <f>C112-B112</f>
         <v>31</v>
       </c>
       <c r="E112" s="3" t="s">
@@ -5016,7 +5024,7 @@
         <v>43182</v>
       </c>
       <c r="D113" s="1">
-        <f t="shared" si="13"/>
+        <f>C113-B113</f>
         <v>31</v>
       </c>
       <c r="E113" s="1" t="s">
@@ -5094,7 +5102,7 @@
         <v>43185</v>
       </c>
       <c r="D115" s="1">
-        <f t="shared" ref="D115:D121" si="14">C115-B115</f>
+        <f>C115-B115</f>
         <v>34</v>
       </c>
       <c r="E115" s="1" t="s">
@@ -5133,7 +5141,7 @@
         <v>43185</v>
       </c>
       <c r="D116" s="1">
-        <f t="shared" si="14"/>
+        <f>C116-B116</f>
         <v>34</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -5172,7 +5180,7 @@
         <v>43185</v>
       </c>
       <c r="D117" s="1">
-        <f t="shared" si="14"/>
+        <f>C117-B117</f>
         <v>34</v>
       </c>
       <c r="E117" s="3" t="s">
@@ -5211,7 +5219,7 @@
         <v>43185</v>
       </c>
       <c r="D118" s="1">
-        <f t="shared" si="14"/>
+        <f>C118-B118</f>
         <v>34</v>
       </c>
       <c r="E118" s="3" t="s">
@@ -5250,7 +5258,7 @@
         <v>43185</v>
       </c>
       <c r="D119" s="1">
-        <f t="shared" si="14"/>
+        <f>C119-B119</f>
         <v>34</v>
       </c>
       <c r="E119" s="1" t="s">
@@ -5289,7 +5297,7 @@
         <v>43185</v>
       </c>
       <c r="D120" s="1">
-        <f t="shared" si="14"/>
+        <f>C120-B120</f>
         <v>34</v>
       </c>
       <c r="E120" s="3" t="s">
@@ -5328,7 +5336,7 @@
         <v>43185</v>
       </c>
       <c r="D121" s="1">
-        <f t="shared" si="14"/>
+        <f>C121-B121</f>
         <v>34</v>
       </c>
       <c r="E121" s="1" t="s">
@@ -5406,7 +5414,7 @@
         <v>43187</v>
       </c>
       <c r="D123" s="1">
-        <f t="shared" ref="D123:D129" si="15">C123-B123</f>
+        <f>C123-B123</f>
         <v>36</v>
       </c>
       <c r="E123" s="1" t="s">
@@ -5445,7 +5453,7 @@
         <v>43187</v>
       </c>
       <c r="D124" s="1">
-        <f t="shared" si="15"/>
+        <f>C124-B124</f>
         <v>36</v>
       </c>
       <c r="E124" s="1" t="s">
@@ -5484,7 +5492,7 @@
         <v>43187</v>
       </c>
       <c r="D125" s="1">
-        <f t="shared" si="15"/>
+        <f>C125-B125</f>
         <v>36</v>
       </c>
       <c r="E125" s="3" t="s">
@@ -5523,7 +5531,7 @@
         <v>43187</v>
       </c>
       <c r="D126" s="1">
-        <f t="shared" si="15"/>
+        <f>C126-B126</f>
         <v>36</v>
       </c>
       <c r="E126" s="3" t="s">
@@ -5562,7 +5570,7 @@
         <v>43187</v>
       </c>
       <c r="D127" s="1">
-        <f t="shared" si="15"/>
+        <f>C127-B127</f>
         <v>36</v>
       </c>
       <c r="E127" s="1" t="s">
@@ -5601,7 +5609,7 @@
         <v>43187</v>
       </c>
       <c r="D128" s="1">
-        <f t="shared" si="15"/>
+        <f>C128-B128</f>
         <v>36</v>
       </c>
       <c r="E128" s="3" t="s">
@@ -5640,7 +5648,7 @@
         <v>43187</v>
       </c>
       <c r="D129" s="1">
-        <f t="shared" si="15"/>
+        <f>C129-B129</f>
         <v>36</v>
       </c>
       <c r="E129" s="1" t="s">
@@ -5718,7 +5726,7 @@
         <v>43189</v>
       </c>
       <c r="D131" s="1">
-        <f t="shared" ref="D131:D137" si="16">C131-B131</f>
+        <f>C131-B131</f>
         <v>38</v>
       </c>
       <c r="E131" s="1" t="s">
@@ -5757,7 +5765,7 @@
         <v>43189</v>
       </c>
       <c r="D132" s="1">
-        <f t="shared" si="16"/>
+        <f>C132-B132</f>
         <v>38</v>
       </c>
       <c r="E132" s="1" t="s">
@@ -5796,7 +5804,7 @@
         <v>43189</v>
       </c>
       <c r="D133" s="1">
-        <f t="shared" si="16"/>
+        <f>C133-B133</f>
         <v>38</v>
       </c>
       <c r="E133" s="3" t="s">
@@ -5835,7 +5843,7 @@
         <v>43189</v>
       </c>
       <c r="D134" s="1">
-        <f t="shared" si="16"/>
+        <f>C134-B134</f>
         <v>38</v>
       </c>
       <c r="E134" s="3" t="s">
@@ -5874,7 +5882,7 @@
         <v>43189</v>
       </c>
       <c r="D135" s="1">
-        <f t="shared" si="16"/>
+        <f>C135-B135</f>
         <v>38</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -5913,7 +5921,7 @@
         <v>43189</v>
       </c>
       <c r="D136" s="1">
-        <f t="shared" si="16"/>
+        <f>C136-B136</f>
         <v>38</v>
       </c>
       <c r="E136" s="3" t="s">
@@ -5952,7 +5960,7 @@
         <v>43189</v>
       </c>
       <c r="D137" s="1">
-        <f t="shared" si="16"/>
+        <f>C137-B137</f>
         <v>38</v>
       </c>
       <c r="E137" s="1" t="s">
@@ -5980,48 +5988,48 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
-        <v>43139</v>
-      </c>
-      <c r="B138" s="2">
-        <v>43151</v>
-      </c>
-      <c r="C138" s="2">
+    <row r="138" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="22">
+        <v>43139</v>
+      </c>
+      <c r="B138" s="22">
+        <v>43151</v>
+      </c>
+      <c r="C138" s="22">
         <v>43192</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D138" s="23">
         <f>C138-B138</f>
         <v>41</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="E138" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F138" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H138" s="1">
-        <v>13</v>
-      </c>
-      <c r="I138" s="1">
+      <c r="F138" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G138" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H138" s="23">
+        <v>13</v>
+      </c>
+      <c r="I138" s="23">
         <v>4</v>
       </c>
-      <c r="J138" s="10">
-        <v>0</v>
-      </c>
-      <c r="K138" s="1">
+      <c r="J138" s="23">
+        <v>0</v>
+      </c>
+      <c r="K138" s="23">
         <v>9834</v>
       </c>
-      <c r="L138" s="1">
+      <c r="L138" s="23">
         <v>19</v>
       </c>
-      <c r="M138" s="13">
+      <c r="M138" s="25">
         <v>4</v>
       </c>
-      <c r="N138" s="11" t="s">
+      <c r="N138" s="26" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6036,7 +6044,7 @@
         <v>43192</v>
       </c>
       <c r="D139" s="1">
-        <f t="shared" ref="D139:D145" si="17">C139-B139</f>
+        <f>C139-B139</f>
         <v>41</v>
       </c>
       <c r="E139" s="1" t="s">
@@ -6063,7 +6071,7 @@
       <c r="L139" s="1">
         <v>14</v>
       </c>
-      <c r="M139" s="13">
+      <c r="M139" s="12">
         <v>4</v>
       </c>
     </row>
@@ -6078,7 +6086,7 @@
         <v>43192</v>
       </c>
       <c r="D140" s="1">
-        <f t="shared" si="17"/>
+        <f>C140-B140</f>
         <v>41</v>
       </c>
       <c r="E140" s="1" t="s">
@@ -6105,7 +6113,7 @@
       <c r="L140" s="1">
         <v>5</v>
       </c>
-      <c r="M140" s="13">
+      <c r="M140" s="12">
         <v>1</v>
       </c>
     </row>
@@ -6120,7 +6128,7 @@
         <v>43192</v>
       </c>
       <c r="D141" s="1">
-        <f t="shared" si="17"/>
+        <f>C141-B141</f>
         <v>41</v>
       </c>
       <c r="E141" s="3" t="s">
@@ -6147,7 +6155,7 @@
       <c r="L141" s="1">
         <v>9</v>
       </c>
-      <c r="M141" s="14">
+      <c r="M141" s="13">
         <v>5</v>
       </c>
     </row>
@@ -6162,7 +6170,7 @@
         <v>43192</v>
       </c>
       <c r="D142" s="1">
-        <f t="shared" si="17"/>
+        <f>C142-B142</f>
         <v>41</v>
       </c>
       <c r="E142" s="3" t="s">
@@ -6189,7 +6197,7 @@
       <c r="L142" s="1">
         <v>17</v>
       </c>
-      <c r="M142" s="14">
+      <c r="M142" s="13">
         <v>4</v>
       </c>
     </row>
@@ -6204,7 +6212,7 @@
         <v>43192</v>
       </c>
       <c r="D143" s="1">
-        <f t="shared" si="17"/>
+        <f>C143-B143</f>
         <v>41</v>
       </c>
       <c r="E143" s="1" t="s">
@@ -6231,49 +6239,49 @@
       <c r="L143" s="1">
         <v>18</v>
       </c>
-      <c r="M143" s="14">
+      <c r="M143" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
-        <v>43140</v>
-      </c>
-      <c r="B144" s="2">
-        <v>43151</v>
-      </c>
-      <c r="C144" s="2">
+    <row r="144" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="22">
+        <v>43140</v>
+      </c>
+      <c r="B144" s="22">
+        <v>43151</v>
+      </c>
+      <c r="C144" s="22">
         <v>43192</v>
       </c>
-      <c r="D144" s="1">
-        <f t="shared" si="17"/>
+      <c r="D144" s="23">
+        <f>C144-B144</f>
         <v>41</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="E144" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F144" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H144" s="1">
+      <c r="F144" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G144" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H144" s="23">
         <v>19</v>
       </c>
-      <c r="I144" s="1">
+      <c r="I144" s="23">
         <v>6</v>
       </c>
-      <c r="J144" s="10">
-        <v>1</v>
-      </c>
-      <c r="K144" s="1">
+      <c r="J144" s="23">
+        <v>1</v>
+      </c>
+      <c r="K144" s="23">
         <v>9835</v>
       </c>
-      <c r="L144" s="1">
+      <c r="L144" s="23">
         <v>24</v>
       </c>
-      <c r="M144" s="14">
+      <c r="M144" s="27">
         <v>6</v>
       </c>
     </row>
@@ -6288,7 +6296,7 @@
         <v>43192</v>
       </c>
       <c r="D145" s="1">
-        <f t="shared" si="17"/>
+        <f>C145-B145</f>
         <v>41</v>
       </c>
       <c r="E145" s="1" t="s">
@@ -6315,7 +6323,7 @@
       <c r="L145" s="1">
         <v>4</v>
       </c>
-      <c r="M145" s="14">
+      <c r="M145" s="13">
         <v>3</v>
       </c>
     </row>
@@ -6369,7 +6377,7 @@
         <v>43194</v>
       </c>
       <c r="D147" s="1">
-        <f t="shared" ref="D147:D153" si="18">C147-B147</f>
+        <f>C147-B147</f>
         <v>43</v>
       </c>
       <c r="E147" s="1" t="s">
@@ -6408,7 +6416,7 @@
         <v>43194</v>
       </c>
       <c r="D148" s="1">
-        <f t="shared" si="18"/>
+        <f>C148-B148</f>
         <v>43</v>
       </c>
       <c r="E148" s="1" t="s">
@@ -6447,7 +6455,7 @@
         <v>43194</v>
       </c>
       <c r="D149" s="1">
-        <f t="shared" si="18"/>
+        <f>C149-B149</f>
         <v>43</v>
       </c>
       <c r="E149" s="3" t="s">
@@ -6486,7 +6494,7 @@
         <v>43194</v>
       </c>
       <c r="D150" s="1">
-        <f t="shared" si="18"/>
+        <f>C150-B150</f>
         <v>43</v>
       </c>
       <c r="E150" s="3" t="s">
@@ -6525,7 +6533,7 @@
         <v>43194</v>
       </c>
       <c r="D151" s="1">
-        <f t="shared" si="18"/>
+        <f>C151-B151</f>
         <v>43</v>
       </c>
       <c r="E151" s="1" t="s">
@@ -6564,7 +6572,7 @@
         <v>43194</v>
       </c>
       <c r="D152" s="1">
-        <f t="shared" si="18"/>
+        <f>C152-B152</f>
         <v>43</v>
       </c>
       <c r="E152" s="3" t="s">
@@ -6603,7 +6611,7 @@
         <v>43194</v>
       </c>
       <c r="D153" s="1">
-        <f t="shared" si="18"/>
+        <f>C153-B153</f>
         <v>43</v>
       </c>
       <c r="E153" s="1" t="s">
@@ -6681,7 +6689,7 @@
         <v>43196</v>
       </c>
       <c r="D155" s="1">
-        <f t="shared" ref="D155:D161" si="19">C155-B155</f>
+        <f>C155-B155</f>
         <v>45</v>
       </c>
       <c r="E155" s="1" t="s">
@@ -6720,7 +6728,7 @@
         <v>43196</v>
       </c>
       <c r="D156" s="1">
-        <f t="shared" si="19"/>
+        <f>C156-B156</f>
         <v>45</v>
       </c>
       <c r="E156" s="1" t="s">
@@ -6759,7 +6767,7 @@
         <v>43196</v>
       </c>
       <c r="D157" s="1">
-        <f t="shared" si="19"/>
+        <f>C157-B157</f>
         <v>45</v>
       </c>
       <c r="E157" s="3" t="s">
@@ -6798,7 +6806,7 @@
         <v>43196</v>
       </c>
       <c r="D158" s="1">
-        <f t="shared" si="19"/>
+        <f>C158-B158</f>
         <v>45</v>
       </c>
       <c r="E158" s="3" t="s">
@@ -6837,7 +6845,7 @@
         <v>43196</v>
       </c>
       <c r="D159" s="1">
-        <f t="shared" si="19"/>
+        <f>C159-B159</f>
         <v>45</v>
       </c>
       <c r="E159" s="1" t="s">
@@ -6876,7 +6884,7 @@
         <v>43196</v>
       </c>
       <c r="D160" s="1">
-        <f t="shared" si="19"/>
+        <f>C160-B160</f>
         <v>45</v>
       </c>
       <c r="E160" s="3" t="s">
@@ -6915,7 +6923,7 @@
         <v>43196</v>
       </c>
       <c r="D161" s="1">
-        <f t="shared" si="19"/>
+        <f>C161-B161</f>
         <v>45</v>
       </c>
       <c r="E161" s="1" t="s">
@@ -6966,13 +6974,13 @@
       <c r="G162" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H162" s="15">
+      <c r="H162" s="14">
         <v>10</v>
       </c>
-      <c r="I162" s="15">
+      <c r="I162" s="14">
         <v>4</v>
       </c>
-      <c r="J162" s="15">
+      <c r="J162" s="14">
         <v>3</v>
       </c>
       <c r="K162" s="1">
@@ -6993,7 +7001,7 @@
         <v>43199</v>
       </c>
       <c r="D163" s="1">
-        <f t="shared" ref="D163:D169" si="20">C163-B163</f>
+        <f>C163-B163</f>
         <v>48</v>
       </c>
       <c r="E163" s="1" t="s">
@@ -7005,13 +7013,13 @@
       <c r="G163" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H163" s="15">
+      <c r="H163" s="14">
         <v>6</v>
       </c>
-      <c r="I163" s="15">
+      <c r="I163" s="14">
         <v>2</v>
       </c>
-      <c r="J163" s="16">
+      <c r="J163" s="15">
         <v>0</v>
       </c>
       <c r="K163" s="1">
@@ -7032,7 +7040,7 @@
         <v>43199</v>
       </c>
       <c r="D164" s="1">
-        <f t="shared" si="20"/>
+        <f>C164-B164</f>
         <v>48</v>
       </c>
       <c r="E164" s="1" t="s">
@@ -7044,13 +7052,13 @@
       <c r="G164" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H164" s="15">
+      <c r="H164" s="14">
         <v>8</v>
       </c>
-      <c r="I164" s="15">
+      <c r="I164" s="14">
         <v>4</v>
       </c>
-      <c r="J164" s="15">
+      <c r="J164" s="14">
         <v>1</v>
       </c>
       <c r="K164" s="1">
@@ -7071,7 +7079,7 @@
         <v>43199</v>
       </c>
       <c r="D165" s="1">
-        <f t="shared" si="20"/>
+        <f>C165-B165</f>
         <v>48</v>
       </c>
       <c r="E165" s="3" t="s">
@@ -7083,13 +7091,13 @@
       <c r="G165" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H165" s="15">
+      <c r="H165" s="14">
         <v>3</v>
       </c>
-      <c r="I165" s="15">
+      <c r="I165" s="14">
         <v>2</v>
       </c>
-      <c r="J165" s="15">
+      <c r="J165" s="14">
         <v>1</v>
       </c>
       <c r="K165" s="1">
@@ -7110,7 +7118,7 @@
         <v>43199</v>
       </c>
       <c r="D166" s="1">
-        <f t="shared" si="20"/>
+        <f>C166-B166</f>
         <v>48</v>
       </c>
       <c r="E166" s="3" t="s">
@@ -7122,13 +7130,13 @@
       <c r="G166" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H166" s="15">
+      <c r="H166" s="14">
         <v>18</v>
       </c>
-      <c r="I166" s="15">
+      <c r="I166" s="14">
         <v>7</v>
       </c>
-      <c r="J166" s="15">
+      <c r="J166" s="14">
         <v>2</v>
       </c>
       <c r="K166" s="1">
@@ -7149,7 +7157,7 @@
         <v>43199</v>
       </c>
       <c r="D167" s="1">
-        <f t="shared" si="20"/>
+        <f>C167-B167</f>
         <v>48</v>
       </c>
       <c r="E167" s="1" t="s">
@@ -7161,10 +7169,10 @@
       <c r="G167" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H167" s="15">
+      <c r="H167" s="14">
         <v>17</v>
       </c>
-      <c r="I167" s="15">
+      <c r="I167" s="14">
         <v>8</v>
       </c>
       <c r="J167" s="10">
@@ -7188,7 +7196,7 @@
         <v>43199</v>
       </c>
       <c r="D168" s="1">
-        <f t="shared" si="20"/>
+        <f>C168-B168</f>
         <v>48</v>
       </c>
       <c r="E168" s="3" t="s">
@@ -7200,13 +7208,13 @@
       <c r="G168" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H168" s="15">
+      <c r="H168" s="14">
         <v>7</v>
       </c>
-      <c r="I168" s="15">
+      <c r="I168" s="14">
         <v>11</v>
       </c>
-      <c r="J168" s="15">
+      <c r="J168" s="14">
         <v>3</v>
       </c>
       <c r="K168" s="1">
@@ -7227,7 +7235,7 @@
         <v>43199</v>
       </c>
       <c r="D169" s="1">
-        <f t="shared" si="20"/>
+        <f>C169-B169</f>
         <v>48</v>
       </c>
       <c r="E169" s="1" t="s">
@@ -7239,13 +7247,13 @@
       <c r="G169" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H169" s="15">
+      <c r="H169" s="14">
         <v>16</v>
       </c>
-      <c r="I169" s="15">
+      <c r="I169" s="14">
         <v>3</v>
       </c>
-      <c r="J169" s="15">
+      <c r="J169" s="14">
         <v>0</v>
       </c>
       <c r="K169" s="1">
@@ -7278,13 +7286,13 @@
       <c r="G170" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H170" s="15">
+      <c r="H170" s="14">
         <v>5</v>
       </c>
-      <c r="I170" s="15">
-        <v>0</v>
-      </c>
-      <c r="J170" s="15">
+      <c r="I170" s="14">
+        <v>0</v>
+      </c>
+      <c r="J170" s="14">
         <v>3</v>
       </c>
       <c r="K170" s="1">
@@ -7305,7 +7313,7 @@
         <v>43201</v>
       </c>
       <c r="D171" s="1">
-        <f t="shared" ref="D171:D177" si="21">C171-B171</f>
+        <f>C171-B171</f>
         <v>50</v>
       </c>
       <c r="E171" s="1" t="s">
@@ -7317,13 +7325,13 @@
       <c r="G171" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H171" s="15">
+      <c r="H171" s="14">
         <v>6</v>
       </c>
-      <c r="I171" s="15">
+      <c r="I171" s="14">
         <v>5</v>
       </c>
-      <c r="J171" s="16">
+      <c r="J171" s="15">
         <v>3</v>
       </c>
       <c r="K171" s="1">
@@ -7344,7 +7352,7 @@
         <v>43201</v>
       </c>
       <c r="D172" s="1">
-        <f t="shared" si="21"/>
+        <f>C172-B172</f>
         <v>50</v>
       </c>
       <c r="E172" s="1" t="s">
@@ -7356,13 +7364,13 @@
       <c r="G172" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H172" s="15">
+      <c r="H172" s="14">
         <v>5</v>
       </c>
-      <c r="I172" s="15">
+      <c r="I172" s="14">
         <v>4</v>
       </c>
-      <c r="J172" s="15">
+      <c r="J172" s="14">
         <v>3</v>
       </c>
       <c r="K172" s="1">
@@ -7383,7 +7391,7 @@
         <v>43201</v>
       </c>
       <c r="D173" s="1">
-        <f t="shared" si="21"/>
+        <f>C173-B173</f>
         <v>50</v>
       </c>
       <c r="E173" s="3" t="s">
@@ -7395,13 +7403,13 @@
       <c r="G173" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H173" s="15">
+      <c r="H173" s="14">
         <v>4</v>
       </c>
-      <c r="I173" s="15">
-        <v>0</v>
-      </c>
-      <c r="J173" s="15">
+      <c r="I173" s="14">
+        <v>0</v>
+      </c>
+      <c r="J173" s="14">
         <v>0</v>
       </c>
       <c r="K173" s="1">
@@ -7422,7 +7430,7 @@
         <v>43201</v>
       </c>
       <c r="D174" s="1">
-        <f t="shared" si="21"/>
+        <f>C174-B174</f>
         <v>50</v>
       </c>
       <c r="E174" s="3" t="s">
@@ -7434,13 +7442,13 @@
       <c r="G174" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H174" s="15">
+      <c r="H174" s="14">
         <v>9</v>
       </c>
-      <c r="I174" s="15">
+      <c r="I174" s="14">
         <v>5</v>
       </c>
-      <c r="J174" s="15">
+      <c r="J174" s="14">
         <v>5</v>
       </c>
       <c r="K174" s="1">
@@ -7461,7 +7469,7 @@
         <v>43201</v>
       </c>
       <c r="D175" s="1">
-        <f t="shared" si="21"/>
+        <f>C175-B175</f>
         <v>50</v>
       </c>
       <c r="E175" s="1" t="s">
@@ -7473,10 +7481,10 @@
       <c r="G175" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H175" s="15">
+      <c r="H175" s="14">
         <v>4</v>
       </c>
-      <c r="I175" s="15">
+      <c r="I175" s="14">
         <v>3</v>
       </c>
       <c r="J175" s="10">
@@ -7500,7 +7508,7 @@
         <v>43201</v>
       </c>
       <c r="D176" s="1">
-        <f t="shared" si="21"/>
+        <f>C176-B176</f>
         <v>50</v>
       </c>
       <c r="E176" s="3" t="s">
@@ -7512,13 +7520,13 @@
       <c r="G176" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H176" s="15">
+      <c r="H176" s="14">
         <v>7</v>
       </c>
-      <c r="I176" s="15">
+      <c r="I176" s="14">
         <v>5</v>
       </c>
-      <c r="J176" s="15">
+      <c r="J176" s="14">
         <v>0</v>
       </c>
       <c r="K176" s="1">
@@ -7539,7 +7547,7 @@
         <v>43201</v>
       </c>
       <c r="D177" s="1">
-        <f t="shared" si="21"/>
+        <f>C177-B177</f>
         <v>50</v>
       </c>
       <c r="E177" s="1" t="s">
@@ -7551,13 +7559,13 @@
       <c r="G177" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H177" s="15">
+      <c r="H177" s="14">
         <v>5</v>
       </c>
-      <c r="I177" s="15">
+      <c r="I177" s="14">
         <v>6</v>
       </c>
-      <c r="J177" s="15">
+      <c r="J177" s="14">
         <v>0</v>
       </c>
       <c r="K177" s="1">
@@ -7590,13 +7598,13 @@
       <c r="G178" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H178" s="15">
-        <v>1</v>
-      </c>
-      <c r="I178" s="15">
+      <c r="H178" s="14">
+        <v>1</v>
+      </c>
+      <c r="I178" s="14">
         <v>2</v>
       </c>
-      <c r="J178" s="15">
+      <c r="J178" s="14">
         <v>3</v>
       </c>
       <c r="K178" s="1">
@@ -7617,7 +7625,7 @@
         <v>43203</v>
       </c>
       <c r="D179" s="1">
-        <f t="shared" ref="D179:D185" si="22">C179-B179</f>
+        <f>C179-B179</f>
         <v>52</v>
       </c>
       <c r="E179" s="1" t="s">
@@ -7629,13 +7637,13 @@
       <c r="G179" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H179" s="15">
-        <v>1</v>
-      </c>
-      <c r="I179" s="15">
-        <v>0</v>
-      </c>
-      <c r="J179" s="17">
+      <c r="H179" s="14">
+        <v>1</v>
+      </c>
+      <c r="I179" s="14">
+        <v>0</v>
+      </c>
+      <c r="J179" s="16">
         <v>7</v>
       </c>
       <c r="K179" s="1">
@@ -7656,7 +7664,7 @@
         <v>43203</v>
       </c>
       <c r="D180" s="1">
-        <f t="shared" si="22"/>
+        <f>C180-B180</f>
         <v>52</v>
       </c>
       <c r="E180" s="1" t="s">
@@ -7668,13 +7676,13 @@
       <c r="G180" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H180" s="15">
+      <c r="H180" s="14">
         <v>2</v>
       </c>
-      <c r="I180" s="15">
+      <c r="I180" s="14">
         <v>4</v>
       </c>
-      <c r="J180" s="15">
+      <c r="J180" s="14">
         <v>1</v>
       </c>
       <c r="K180" s="1">
@@ -7695,7 +7703,7 @@
         <v>43203</v>
       </c>
       <c r="D181" s="1">
-        <f t="shared" si="22"/>
+        <f>C181-B181</f>
         <v>52</v>
       </c>
       <c r="E181" s="3" t="s">
@@ -7707,13 +7715,13 @@
       <c r="G181" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H181" s="15">
-        <v>0</v>
-      </c>
-      <c r="I181" s="15">
-        <v>1</v>
-      </c>
-      <c r="J181" s="15">
+      <c r="H181" s="14">
+        <v>0</v>
+      </c>
+      <c r="I181" s="14">
+        <v>1</v>
+      </c>
+      <c r="J181" s="14">
         <v>3</v>
       </c>
       <c r="K181" s="1">
@@ -7734,7 +7742,7 @@
         <v>43203</v>
       </c>
       <c r="D182" s="1">
-        <f t="shared" si="22"/>
+        <f>C182-B182</f>
         <v>52</v>
       </c>
       <c r="E182" s="3" t="s">
@@ -7746,13 +7754,13 @@
       <c r="G182" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H182" s="15">
+      <c r="H182" s="14">
         <v>5</v>
       </c>
-      <c r="I182" s="15">
+      <c r="I182" s="14">
         <v>4</v>
       </c>
-      <c r="J182" s="15">
+      <c r="J182" s="14">
         <v>1</v>
       </c>
       <c r="K182" s="1">
@@ -7773,7 +7781,7 @@
         <v>43203</v>
       </c>
       <c r="D183" s="1">
-        <f t="shared" si="22"/>
+        <f>C183-B183</f>
         <v>52</v>
       </c>
       <c r="E183" s="1" t="s">
@@ -7785,13 +7793,13 @@
       <c r="G183" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H183" s="15">
+      <c r="H183" s="14">
         <v>9</v>
       </c>
-      <c r="I183" s="15">
+      <c r="I183" s="14">
         <v>2</v>
       </c>
-      <c r="J183" s="15">
+      <c r="J183" s="14">
         <v>0</v>
       </c>
       <c r="K183" s="1">
@@ -7812,7 +7820,7 @@
         <v>43203</v>
       </c>
       <c r="D184" s="1">
-        <f t="shared" si="22"/>
+        <f>C184-B184</f>
         <v>52</v>
       </c>
       <c r="E184" s="3" t="s">
@@ -7824,13 +7832,13 @@
       <c r="G184" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H184" s="15">
+      <c r="H184" s="14">
         <v>8</v>
       </c>
-      <c r="I184" s="15">
+      <c r="I184" s="14">
         <v>2</v>
       </c>
-      <c r="J184" s="15">
+      <c r="J184" s="14">
         <v>1</v>
       </c>
       <c r="K184" s="1">
@@ -7851,7 +7859,7 @@
         <v>43203</v>
       </c>
       <c r="D185" s="1">
-        <f t="shared" si="22"/>
+        <f>C185-B185</f>
         <v>52</v>
       </c>
       <c r="E185" s="1" t="s">
@@ -7863,13 +7871,13 @@
       <c r="G185" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H185" s="15">
+      <c r="H185" s="14">
         <v>4</v>
       </c>
-      <c r="I185" s="15">
-        <v>0</v>
-      </c>
-      <c r="J185" s="15">
+      <c r="I185" s="14">
+        <v>0</v>
+      </c>
+      <c r="J185" s="14">
         <v>0</v>
       </c>
       <c r="K185" s="1">
@@ -7902,13 +7910,13 @@
       <c r="G186" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H186" s="15">
+      <c r="H186" s="14">
         <v>5</v>
       </c>
-      <c r="I186" s="15">
+      <c r="I186" s="14">
         <v>2</v>
       </c>
-      <c r="J186" s="15">
+      <c r="J186" s="14">
         <v>0</v>
       </c>
       <c r="K186" s="1">
@@ -7929,7 +7937,7 @@
         <v>43206</v>
       </c>
       <c r="D187" s="1">
-        <f t="shared" ref="D187:D193" si="23">C187-B187</f>
+        <f>C187-B187</f>
         <v>55</v>
       </c>
       <c r="E187" s="1" t="s">
@@ -7941,13 +7949,13 @@
       <c r="G187" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H187" s="15">
+      <c r="H187" s="14">
         <v>2</v>
       </c>
-      <c r="I187" s="15">
-        <v>1</v>
-      </c>
-      <c r="J187" s="16">
+      <c r="I187" s="14">
+        <v>1</v>
+      </c>
+      <c r="J187" s="15">
         <v>1</v>
       </c>
       <c r="K187" s="1">
@@ -7968,7 +7976,7 @@
         <v>43206</v>
       </c>
       <c r="D188" s="1">
-        <f t="shared" si="23"/>
+        <f>C188-B188</f>
         <v>55</v>
       </c>
       <c r="E188" s="1" t="s">
@@ -7980,13 +7988,13 @@
       <c r="G188" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H188" s="15">
+      <c r="H188" s="14">
         <v>11</v>
       </c>
-      <c r="I188" s="15">
+      <c r="I188" s="14">
         <v>14</v>
       </c>
-      <c r="J188" s="15">
+      <c r="J188" s="14">
         <v>2</v>
       </c>
       <c r="K188" s="1">
@@ -8007,7 +8015,7 @@
         <v>43206</v>
       </c>
       <c r="D189" s="1">
-        <f t="shared" si="23"/>
+        <f>C189-B189</f>
         <v>55</v>
       </c>
       <c r="E189" s="3" t="s">
@@ -8019,13 +8027,13 @@
       <c r="G189" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H189" s="15">
+      <c r="H189" s="14">
         <v>2</v>
       </c>
-      <c r="I189" s="15">
+      <c r="I189" s="14">
         <v>3</v>
       </c>
-      <c r="J189" s="15">
+      <c r="J189" s="14">
         <v>0</v>
       </c>
       <c r="K189" s="1">
@@ -8035,81 +8043,81 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A190" s="2">
-        <v>43140</v>
-      </c>
-      <c r="B190" s="2">
-        <v>43151</v>
-      </c>
-      <c r="C190" s="2">
+    <row r="190" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="22">
+        <v>43140</v>
+      </c>
+      <c r="B190" s="22">
+        <v>43151</v>
+      </c>
+      <c r="C190" s="22">
         <v>43206</v>
       </c>
-      <c r="D190" s="1">
-        <f t="shared" si="23"/>
+      <c r="D190" s="23">
+        <f>C190-B190</f>
         <v>55</v>
       </c>
-      <c r="E190" s="3" t="s">
+      <c r="E190" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F190" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H190" s="15">
+      <c r="F190" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G190" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H190" s="23">
         <v>4</v>
       </c>
-      <c r="I190" s="15">
+      <c r="I190" s="23">
         <v>2</v>
       </c>
-      <c r="J190" s="10">
+      <c r="J190" s="23">
         <v>9</v>
       </c>
-      <c r="K190" s="1">
+      <c r="K190" s="23">
         <v>9834</v>
       </c>
-      <c r="L190" s="1">
+      <c r="L190" s="23">
         <v>33</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A191" s="2">
-        <v>43140</v>
-      </c>
-      <c r="B191" s="2">
-        <v>43151</v>
-      </c>
-      <c r="C191" s="2">
+    <row r="191" spans="1:12" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="22">
+        <v>43140</v>
+      </c>
+      <c r="B191" s="22">
+        <v>43151</v>
+      </c>
+      <c r="C191" s="22">
         <v>43206</v>
       </c>
-      <c r="D191" s="1">
-        <f t="shared" si="23"/>
+      <c r="D191" s="23">
+        <f>C191-B191</f>
         <v>55</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="E191" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F191" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G191" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H191" s="15">
+      <c r="F191" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G191" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H191" s="23">
         <v>6</v>
       </c>
-      <c r="I191" s="15">
+      <c r="I191" s="23">
         <v>2</v>
       </c>
-      <c r="J191" s="15">
+      <c r="J191" s="23">
         <v>4</v>
       </c>
-      <c r="K191" s="1">
+      <c r="K191" s="23">
         <v>9835</v>
       </c>
-      <c r="L191" s="1">
+      <c r="L191" s="23">
         <v>15</v>
       </c>
     </row>
@@ -8124,7 +8132,7 @@
         <v>43206</v>
       </c>
       <c r="D192" s="1">
-        <f t="shared" si="23"/>
+        <f>C192-B192</f>
         <v>55</v>
       </c>
       <c r="E192" s="3" t="s">
@@ -8136,13 +8144,13 @@
       <c r="G192" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H192" s="15">
+      <c r="H192" s="14">
         <v>9</v>
       </c>
-      <c r="I192" s="15">
+      <c r="I192" s="14">
         <v>3</v>
       </c>
-      <c r="J192" s="15">
+      <c r="J192" s="14">
         <v>3</v>
       </c>
       <c r="K192" s="1">
@@ -8163,7 +8171,7 @@
         <v>43206</v>
       </c>
       <c r="D193" s="1">
-        <f t="shared" si="23"/>
+        <f>C193-B193</f>
         <v>55</v>
       </c>
       <c r="E193" s="1" t="s">
@@ -8175,13 +8183,13 @@
       <c r="G193" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H193" s="15">
+      <c r="H193" s="14">
         <v>5</v>
       </c>
-      <c r="I193" s="15">
+      <c r="I193" s="14">
         <v>2</v>
       </c>
-      <c r="J193" s="15">
+      <c r="J193" s="14">
         <v>1</v>
       </c>
       <c r="K193" s="1">
@@ -8214,16 +8222,16 @@
       <c r="G194" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H194" s="15">
+      <c r="H194" s="14">
         <v>3</v>
       </c>
-      <c r="I194" s="15">
-        <v>0</v>
-      </c>
-      <c r="J194" s="15">
-        <v>0</v>
-      </c>
-      <c r="K194" s="15">
+      <c r="I194" s="14">
+        <v>0</v>
+      </c>
+      <c r="J194" s="14">
+        <v>0</v>
+      </c>
+      <c r="K194" s="14">
         <v>9894</v>
       </c>
       <c r="L194" s="1">
@@ -8241,7 +8249,7 @@
         <v>43208</v>
       </c>
       <c r="D195" s="1">
-        <f t="shared" ref="D195:D201" si="24">C195-B195</f>
+        <f>C195-B195</f>
         <v>57</v>
       </c>
       <c r="E195" s="1" t="s">
@@ -8253,16 +8261,16 @@
       <c r="G195" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H195" s="15">
-        <v>1</v>
-      </c>
-      <c r="I195" s="15">
-        <v>0</v>
-      </c>
-      <c r="J195" s="17">
+      <c r="H195" s="14">
+        <v>1</v>
+      </c>
+      <c r="I195" s="14">
+        <v>0</v>
+      </c>
+      <c r="J195" s="16">
         <v>5</v>
       </c>
-      <c r="K195" s="15">
+      <c r="K195" s="14">
         <v>9895</v>
       </c>
       <c r="L195" s="1">
@@ -8280,7 +8288,7 @@
         <v>43208</v>
       </c>
       <c r="D196" s="1">
-        <f t="shared" si="24"/>
+        <f>C196-B196</f>
         <v>57</v>
       </c>
       <c r="E196" s="1" t="s">
@@ -8292,16 +8300,16 @@
       <c r="G196" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H196" s="15">
-        <v>1</v>
-      </c>
-      <c r="I196" s="15">
-        <v>1</v>
-      </c>
-      <c r="J196" s="15">
-        <v>0</v>
-      </c>
-      <c r="K196" s="15">
+      <c r="H196" s="14">
+        <v>1</v>
+      </c>
+      <c r="I196" s="14">
+        <v>1</v>
+      </c>
+      <c r="J196" s="14">
+        <v>0</v>
+      </c>
+      <c r="K196" s="14">
         <v>9891</v>
       </c>
       <c r="L196" s="1">
@@ -8319,7 +8327,7 @@
         <v>43208</v>
       </c>
       <c r="D197" s="1">
-        <f t="shared" si="24"/>
+        <f>C197-B197</f>
         <v>57</v>
       </c>
       <c r="E197" s="3" t="s">
@@ -8331,16 +8339,16 @@
       <c r="G197" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H197" s="15">
+      <c r="H197" s="14">
         <v>3</v>
       </c>
-      <c r="I197" s="15">
+      <c r="I197" s="14">
         <v>2</v>
       </c>
-      <c r="J197" s="15">
-        <v>0</v>
-      </c>
-      <c r="K197" s="15">
+      <c r="J197" s="14">
+        <v>0</v>
+      </c>
+      <c r="K197" s="14">
         <v>9892</v>
       </c>
       <c r="L197" s="1">
@@ -8358,7 +8366,7 @@
         <v>43208</v>
       </c>
       <c r="D198" s="1">
-        <f t="shared" si="24"/>
+        <f>C198-B198</f>
         <v>57</v>
       </c>
       <c r="E198" s="3" t="s">
@@ -8370,16 +8378,16 @@
       <c r="G198" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H198" s="15">
+      <c r="H198" s="14">
         <v>5</v>
       </c>
-      <c r="I198" s="15">
+      <c r="I198" s="14">
         <v>6</v>
       </c>
-      <c r="J198" s="15">
-        <v>0</v>
-      </c>
-      <c r="K198" s="15">
+      <c r="J198" s="14">
+        <v>0</v>
+      </c>
+      <c r="K198" s="14">
         <v>9896</v>
       </c>
       <c r="L198" s="1">
@@ -8397,7 +8405,7 @@
         <v>43208</v>
       </c>
       <c r="D199" s="1">
-        <f t="shared" si="24"/>
+        <f>C199-B199</f>
         <v>57</v>
       </c>
       <c r="E199" s="1" t="s">
@@ -8409,16 +8417,16 @@
       <c r="G199" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H199" s="15">
+      <c r="H199" s="14">
         <v>4</v>
       </c>
-      <c r="I199" s="15">
+      <c r="I199" s="14">
         <v>3</v>
       </c>
       <c r="J199" s="10">
         <v>11</v>
       </c>
-      <c r="K199" s="15">
+      <c r="K199" s="14">
         <v>9897</v>
       </c>
       <c r="L199" s="1">
@@ -8436,7 +8444,7 @@
         <v>43208</v>
       </c>
       <c r="D200" s="1">
-        <f t="shared" si="24"/>
+        <f>C200-B200</f>
         <v>57</v>
       </c>
       <c r="E200" s="3" t="s">
@@ -8448,16 +8456,16 @@
       <c r="G200" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H200" s="15">
+      <c r="H200" s="14">
         <v>3</v>
       </c>
-      <c r="I200" s="15">
+      <c r="I200" s="14">
         <v>2</v>
       </c>
-      <c r="J200" s="15">
-        <v>0</v>
-      </c>
-      <c r="K200" s="15">
+      <c r="J200" s="14">
+        <v>0</v>
+      </c>
+      <c r="K200" s="14">
         <v>9890</v>
       </c>
       <c r="L200" s="1">
@@ -8475,7 +8483,7 @@
         <v>43208</v>
       </c>
       <c r="D201" s="1">
-        <f t="shared" si="24"/>
+        <f>C201-B201</f>
         <v>57</v>
       </c>
       <c r="E201" s="1" t="s">
@@ -8487,16 +8495,16 @@
       <c r="G201" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H201" s="15">
+      <c r="H201" s="14">
         <v>2</v>
       </c>
-      <c r="I201" s="15">
+      <c r="I201" s="14">
         <v>2</v>
       </c>
-      <c r="J201" s="15">
+      <c r="J201" s="14">
         <v>3</v>
       </c>
-      <c r="K201" s="15">
+      <c r="K201" s="14">
         <v>9893</v>
       </c>
       <c r="L201" s="1">
@@ -8526,17 +8534,17 @@
       <c r="G202" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H202" s="15">
+      <c r="H202" s="14">
         <v>5</v>
       </c>
-      <c r="I202" s="15">
+      <c r="I202" s="14">
         <v>3</v>
       </c>
-      <c r="J202" s="15">
-        <v>0</v>
-      </c>
-      <c r="K202" s="15"/>
-      <c r="L202" s="15"/>
+      <c r="J202" s="14">
+        <v>0</v>
+      </c>
+      <c r="K202" s="14"/>
+      <c r="L202" s="14"/>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
@@ -8549,7 +8557,7 @@
         <v>43210</v>
       </c>
       <c r="D203" s="1">
-        <f t="shared" ref="D203:D209" si="25">C203-B203</f>
+        <f>C203-B203</f>
         <v>59</v>
       </c>
       <c r="E203" s="1" t="s">
@@ -8561,17 +8569,17 @@
       <c r="G203" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H203" s="15">
+      <c r="H203" s="14">
         <v>2</v>
       </c>
-      <c r="I203" s="15">
-        <v>0</v>
-      </c>
-      <c r="J203" s="16">
-        <v>1</v>
-      </c>
-      <c r="K203" s="15"/>
-      <c r="L203" s="15"/>
+      <c r="I203" s="14">
+        <v>0</v>
+      </c>
+      <c r="J203" s="15">
+        <v>1</v>
+      </c>
+      <c r="K203" s="14"/>
+      <c r="L203" s="14"/>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
@@ -8584,7 +8592,7 @@
         <v>43210</v>
       </c>
       <c r="D204" s="1">
-        <f t="shared" si="25"/>
+        <f>C204-B204</f>
         <v>59</v>
       </c>
       <c r="E204" s="1" t="s">
@@ -8596,17 +8604,17 @@
       <c r="G204" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H204" s="15">
+      <c r="H204" s="14">
         <v>6</v>
       </c>
-      <c r="I204" s="15">
-        <v>1</v>
-      </c>
-      <c r="J204" s="15">
-        <v>0</v>
-      </c>
-      <c r="K204" s="15"/>
-      <c r="L204" s="15"/>
+      <c r="I204" s="14">
+        <v>1</v>
+      </c>
+      <c r="J204" s="14">
+        <v>0</v>
+      </c>
+      <c r="K204" s="14"/>
+      <c r="L204" s="14"/>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
@@ -8619,7 +8627,7 @@
         <v>43210</v>
       </c>
       <c r="D205" s="1">
-        <f t="shared" si="25"/>
+        <f>C205-B205</f>
         <v>59</v>
       </c>
       <c r="E205" s="3" t="s">
@@ -8631,17 +8639,17 @@
       <c r="G205" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H205" s="15">
-        <v>1</v>
-      </c>
-      <c r="I205" s="15">
-        <v>0</v>
-      </c>
-      <c r="J205" s="15">
-        <v>0</v>
-      </c>
-      <c r="K205" s="15"/>
-      <c r="L205" s="15"/>
+      <c r="H205" s="14">
+        <v>1</v>
+      </c>
+      <c r="I205" s="14">
+        <v>0</v>
+      </c>
+      <c r="J205" s="14">
+        <v>0</v>
+      </c>
+      <c r="K205" s="14"/>
+      <c r="L205" s="14"/>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
@@ -8654,7 +8662,7 @@
         <v>43210</v>
       </c>
       <c r="D206" s="1">
-        <f t="shared" si="25"/>
+        <f>C206-B206</f>
         <v>59</v>
       </c>
       <c r="E206" s="3" t="s">
@@ -8666,17 +8674,17 @@
       <c r="G206" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H206" s="15">
+      <c r="H206" s="14">
         <v>3</v>
       </c>
-      <c r="I206" s="15">
+      <c r="I206" s="14">
         <v>3</v>
       </c>
-      <c r="J206" s="15">
-        <v>0</v>
-      </c>
-      <c r="K206" s="15"/>
-      <c r="L206" s="15"/>
+      <c r="J206" s="14">
+        <v>0</v>
+      </c>
+      <c r="K206" s="14"/>
+      <c r="L206" s="14"/>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
@@ -8689,7 +8697,7 @@
         <v>43210</v>
       </c>
       <c r="D207" s="1">
-        <f t="shared" si="25"/>
+        <f>C207-B207</f>
         <v>59</v>
       </c>
       <c r="E207" s="1" t="s">
@@ -8701,17 +8709,17 @@
       <c r="G207" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H207" s="15">
+      <c r="H207" s="14">
         <v>4</v>
       </c>
-      <c r="I207" s="15">
+      <c r="I207" s="14">
         <v>2</v>
       </c>
-      <c r="J207" s="15">
+      <c r="J207" s="14">
         <v>2</v>
       </c>
-      <c r="K207" s="15"/>
-      <c r="L207" s="15"/>
+      <c r="K207" s="14"/>
+      <c r="L207" s="14"/>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
@@ -8724,7 +8732,7 @@
         <v>43210</v>
       </c>
       <c r="D208" s="1">
-        <f t="shared" si="25"/>
+        <f>C208-B208</f>
         <v>59</v>
       </c>
       <c r="E208" s="3" t="s">
@@ -8736,17 +8744,17 @@
       <c r="G208" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H208" s="15">
+      <c r="H208" s="14">
         <v>8</v>
       </c>
-      <c r="I208" s="15">
+      <c r="I208" s="14">
         <v>3</v>
       </c>
-      <c r="J208" s="15">
-        <v>0</v>
-      </c>
-      <c r="K208" s="15"/>
-      <c r="L208" s="15"/>
+      <c r="J208" s="14">
+        <v>0</v>
+      </c>
+      <c r="K208" s="14"/>
+      <c r="L208" s="14"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
@@ -8759,7 +8767,7 @@
         <v>43210</v>
       </c>
       <c r="D209" s="1">
-        <f t="shared" si="25"/>
+        <f>C209-B209</f>
         <v>59</v>
       </c>
       <c r="E209" s="1" t="s">
@@ -8771,17 +8779,17 @@
       <c r="G209" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H209" s="15">
-        <v>1</v>
-      </c>
-      <c r="I209" s="15">
+      <c r="H209" s="14">
+        <v>1</v>
+      </c>
+      <c r="I209" s="14">
         <v>4</v>
       </c>
-      <c r="J209" s="15">
-        <v>1</v>
-      </c>
-      <c r="K209" s="15"/>
-      <c r="L209" s="15"/>
+      <c r="J209" s="14">
+        <v>1</v>
+      </c>
+      <c r="K209" s="14"/>
+      <c r="L209" s="14"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
@@ -8806,17 +8814,17 @@
       <c r="G210" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H210" s="15">
+      <c r="H210" s="14">
         <v>5</v>
       </c>
-      <c r="I210" s="15">
+      <c r="I210" s="14">
         <v>3</v>
       </c>
-      <c r="J210" s="15">
+      <c r="J210" s="14">
         <v>3</v>
       </c>
-      <c r="K210" s="15"/>
-      <c r="L210" s="15"/>
+      <c r="K210" s="14"/>
+      <c r="L210" s="14"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
@@ -8829,7 +8837,7 @@
         <v>43213</v>
       </c>
       <c r="D211" s="1">
-        <f t="shared" ref="D211:D217" si="26">C211-B211</f>
+        <f>C211-B211</f>
         <v>62</v>
       </c>
       <c r="E211" s="1" t="s">
@@ -8841,17 +8849,17 @@
       <c r="G211" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H211" s="15">
+      <c r="H211" s="14">
         <v>2</v>
       </c>
-      <c r="I211" s="15">
+      <c r="I211" s="14">
         <v>4</v>
       </c>
-      <c r="J211" s="16">
+      <c r="J211" s="15">
         <v>3</v>
       </c>
-      <c r="K211" s="15"/>
-      <c r="L211" s="15"/>
+      <c r="K211" s="14"/>
+      <c r="L211" s="14"/>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
@@ -8864,7 +8872,7 @@
         <v>43213</v>
       </c>
       <c r="D212" s="1">
-        <f t="shared" si="26"/>
+        <f>C212-B212</f>
         <v>62</v>
       </c>
       <c r="E212" s="1" t="s">
@@ -8876,17 +8884,17 @@
       <c r="G212" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H212" s="15">
+      <c r="H212" s="14">
         <v>2</v>
       </c>
-      <c r="I212" s="15">
+      <c r="I212" s="14">
         <v>2</v>
       </c>
-      <c r="J212" s="15">
-        <v>0</v>
-      </c>
-      <c r="K212" s="15"/>
-      <c r="L212" s="15"/>
+      <c r="J212" s="14">
+        <v>0</v>
+      </c>
+      <c r="K212" s="14"/>
+      <c r="L212" s="14"/>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
@@ -8899,7 +8907,7 @@
         <v>43213</v>
       </c>
       <c r="D213" s="1">
-        <f t="shared" si="26"/>
+        <f>C213-B213</f>
         <v>62</v>
       </c>
       <c r="E213" s="3" t="s">
@@ -8911,17 +8919,17 @@
       <c r="G213" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H213" s="15">
+      <c r="H213" s="14">
         <v>3</v>
       </c>
-      <c r="I213" s="15">
+      <c r="I213" s="14">
         <v>3</v>
       </c>
-      <c r="J213" s="15">
-        <v>1</v>
-      </c>
-      <c r="K213" s="15"/>
-      <c r="L213" s="15"/>
+      <c r="J213" s="14">
+        <v>1</v>
+      </c>
+      <c r="K213" s="14"/>
+      <c r="L213" s="14"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
@@ -8934,7 +8942,7 @@
         <v>43213</v>
       </c>
       <c r="D214" s="1">
-        <f t="shared" si="26"/>
+        <f>C214-B214</f>
         <v>62</v>
       </c>
       <c r="E214" s="3" t="s">
@@ -8946,17 +8954,17 @@
       <c r="G214" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H214" s="15">
+      <c r="H214" s="14">
         <v>7</v>
       </c>
-      <c r="I214" s="15">
+      <c r="I214" s="14">
         <v>5</v>
       </c>
-      <c r="J214" s="15">
+      <c r="J214" s="14">
         <v>3</v>
       </c>
-      <c r="K214" s="15"/>
-      <c r="L214" s="15"/>
+      <c r="K214" s="14"/>
+      <c r="L214" s="14"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
@@ -8969,7 +8977,7 @@
         <v>43213</v>
       </c>
       <c r="D215" s="1">
-        <f t="shared" si="26"/>
+        <f>C215-B215</f>
         <v>62</v>
       </c>
       <c r="E215" s="1" t="s">
@@ -8981,17 +8989,17 @@
       <c r="G215" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H215" s="15">
+      <c r="H215" s="14">
         <v>4</v>
       </c>
-      <c r="I215" s="15">
+      <c r="I215" s="14">
         <v>2</v>
       </c>
-      <c r="J215" s="15">
+      <c r="J215" s="14">
         <v>2</v>
       </c>
-      <c r="K215" s="15"/>
-      <c r="L215" s="15"/>
+      <c r="K215" s="14"/>
+      <c r="L215" s="14"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
@@ -9004,7 +9012,7 @@
         <v>43213</v>
       </c>
       <c r="D216" s="1">
-        <f t="shared" si="26"/>
+        <f>C216-B216</f>
         <v>62</v>
       </c>
       <c r="E216" s="3" t="s">
@@ -9016,17 +9024,17 @@
       <c r="G216" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H216" s="15">
+      <c r="H216" s="14">
         <v>9</v>
       </c>
-      <c r="I216" s="15">
+      <c r="I216" s="14">
         <v>4</v>
       </c>
-      <c r="J216" s="15">
-        <v>0</v>
-      </c>
-      <c r="K216" s="15"/>
-      <c r="L216" s="15"/>
+      <c r="J216" s="14">
+        <v>0</v>
+      </c>
+      <c r="K216" s="14"/>
+      <c r="L216" s="14"/>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
@@ -9039,7 +9047,7 @@
         <v>43213</v>
       </c>
       <c r="D217" s="1">
-        <f t="shared" si="26"/>
+        <f>C217-B217</f>
         <v>62</v>
       </c>
       <c r="E217" s="1" t="s">
@@ -9051,17 +9059,17 @@
       <c r="G217" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H217" s="15">
+      <c r="H217" s="14">
         <v>3</v>
       </c>
-      <c r="I217" s="15">
+      <c r="I217" s="14">
         <v>1</v>
       </c>
       <c r="J217" s="10">
         <v>6</v>
       </c>
-      <c r="K217" s="15"/>
-      <c r="L217" s="15"/>
+      <c r="K217" s="14"/>
+      <c r="L217" s="14"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
@@ -9086,17 +9094,17 @@
       <c r="G218" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H218" s="15">
-        <v>0</v>
-      </c>
-      <c r="I218" s="15">
-        <v>1</v>
-      </c>
-      <c r="J218" s="15">
-        <v>1</v>
-      </c>
-      <c r="K218" s="15"/>
-      <c r="L218" s="15"/>
+      <c r="H218" s="14">
+        <v>0</v>
+      </c>
+      <c r="I218" s="14">
+        <v>1</v>
+      </c>
+      <c r="J218" s="14">
+        <v>1</v>
+      </c>
+      <c r="K218" s="14"/>
+      <c r="L218" s="14"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
@@ -9109,7 +9117,7 @@
         <v>43215</v>
       </c>
       <c r="D219" s="1">
-        <f t="shared" ref="D219:D225" si="27">C219-B219</f>
+        <f>C219-B219</f>
         <v>64</v>
       </c>
       <c r="E219" s="1" t="s">
@@ -9121,17 +9129,17 @@
       <c r="G219" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H219" s="15">
+      <c r="H219" s="14">
         <v>2</v>
       </c>
-      <c r="I219" s="15">
-        <v>1</v>
-      </c>
-      <c r="J219" s="16">
-        <v>0</v>
-      </c>
-      <c r="K219" s="15"/>
-      <c r="L219" s="15"/>
+      <c r="I219" s="14">
+        <v>1</v>
+      </c>
+      <c r="J219" s="15">
+        <v>0</v>
+      </c>
+      <c r="K219" s="14"/>
+      <c r="L219" s="14"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
@@ -9144,7 +9152,7 @@
         <v>43215</v>
       </c>
       <c r="D220" s="1">
-        <f t="shared" si="27"/>
+        <f>C220-B220</f>
         <v>64</v>
       </c>
       <c r="E220" s="1" t="s">
@@ -9156,17 +9164,17 @@
       <c r="G220" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H220" s="15">
-        <v>0</v>
-      </c>
-      <c r="I220" s="15">
-        <v>0</v>
-      </c>
-      <c r="J220" s="15">
-        <v>0</v>
-      </c>
-      <c r="K220" s="15"/>
-      <c r="L220" s="15"/>
+      <c r="H220" s="14">
+        <v>0</v>
+      </c>
+      <c r="I220" s="14">
+        <v>0</v>
+      </c>
+      <c r="J220" s="14">
+        <v>0</v>
+      </c>
+      <c r="K220" s="14"/>
+      <c r="L220" s="14"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
@@ -9179,7 +9187,7 @@
         <v>43215</v>
       </c>
       <c r="D221" s="1">
-        <f t="shared" si="27"/>
+        <f>C221-B221</f>
         <v>64</v>
       </c>
       <c r="E221" s="3" t="s">
@@ -9191,17 +9199,17 @@
       <c r="G221" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H221" s="15">
-        <v>0</v>
-      </c>
-      <c r="I221" s="15">
-        <v>1</v>
-      </c>
-      <c r="J221" s="15">
+      <c r="H221" s="14">
+        <v>0</v>
+      </c>
+      <c r="I221" s="14">
+        <v>1</v>
+      </c>
+      <c r="J221" s="14">
         <v>2</v>
       </c>
-      <c r="K221" s="15"/>
-      <c r="L221" s="15"/>
+      <c r="K221" s="14"/>
+      <c r="L221" s="14"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
@@ -9214,7 +9222,7 @@
         <v>43215</v>
       </c>
       <c r="D222" s="1">
-        <f t="shared" si="27"/>
+        <f>C222-B222</f>
         <v>64</v>
       </c>
       <c r="E222" s="3" t="s">
@@ -9226,17 +9234,17 @@
       <c r="G222" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H222" s="15">
+      <c r="H222" s="14">
         <v>4</v>
       </c>
-      <c r="I222" s="15">
+      <c r="I222" s="14">
         <v>5</v>
       </c>
-      <c r="J222" s="15">
-        <v>0</v>
-      </c>
-      <c r="K222" s="15"/>
-      <c r="L222" s="15"/>
+      <c r="J222" s="14">
+        <v>0</v>
+      </c>
+      <c r="K222" s="14"/>
+      <c r="L222" s="14"/>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
@@ -9249,7 +9257,7 @@
         <v>43215</v>
       </c>
       <c r="D223" s="1">
-        <f t="shared" si="27"/>
+        <f>C223-B223</f>
         <v>64</v>
       </c>
       <c r="E223" s="1" t="s">
@@ -9261,17 +9269,17 @@
       <c r="G223" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H223" s="15">
+      <c r="H223" s="14">
         <v>4</v>
       </c>
-      <c r="I223" s="15">
+      <c r="I223" s="14">
         <v>2</v>
       </c>
-      <c r="J223" s="15">
-        <v>0</v>
-      </c>
-      <c r="K223" s="15"/>
-      <c r="L223" s="15"/>
+      <c r="J223" s="14">
+        <v>0</v>
+      </c>
+      <c r="K223" s="14"/>
+      <c r="L223" s="14"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
@@ -9284,7 +9292,7 @@
         <v>43215</v>
       </c>
       <c r="D224" s="1">
-        <f t="shared" si="27"/>
+        <f>C224-B224</f>
         <v>64</v>
       </c>
       <c r="E224" s="3" t="s">
@@ -9296,17 +9304,17 @@
       <c r="G224" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H224" s="15">
+      <c r="H224" s="14">
         <v>3</v>
       </c>
-      <c r="I224" s="15">
-        <v>0</v>
-      </c>
-      <c r="J224" s="15">
-        <v>1</v>
-      </c>
-      <c r="K224" s="15"/>
-      <c r="L224" s="15"/>
+      <c r="I224" s="14">
+        <v>0</v>
+      </c>
+      <c r="J224" s="14">
+        <v>1</v>
+      </c>
+      <c r="K224" s="14"/>
+      <c r="L224" s="14"/>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
@@ -9319,7 +9327,7 @@
         <v>43215</v>
       </c>
       <c r="D225" s="1">
-        <f t="shared" si="27"/>
+        <f>C225-B225</f>
         <v>64</v>
       </c>
       <c r="E225" s="1" t="s">
@@ -9331,17 +9339,17 @@
       <c r="G225" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H225" s="15">
-        <v>0</v>
-      </c>
-      <c r="I225" s="15">
+      <c r="H225" s="14">
+        <v>0</v>
+      </c>
+      <c r="I225" s="14">
         <v>2</v>
       </c>
-      <c r="J225" s="15">
-        <v>0</v>
-      </c>
-      <c r="K225" s="15"/>
-      <c r="L225" s="15"/>
+      <c r="J225" s="14">
+        <v>0</v>
+      </c>
+      <c r="K225" s="14"/>
+      <c r="L225" s="14"/>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
@@ -9366,17 +9374,17 @@
       <c r="G226" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H226" s="15">
-        <v>1</v>
-      </c>
-      <c r="I226" s="15">
-        <v>0</v>
-      </c>
-      <c r="J226" s="15">
-        <v>1</v>
-      </c>
-      <c r="K226" s="15"/>
-      <c r="L226" s="15"/>
+      <c r="H226" s="14">
+        <v>1</v>
+      </c>
+      <c r="I226" s="14">
+        <v>0</v>
+      </c>
+      <c r="J226" s="14">
+        <v>1</v>
+      </c>
+      <c r="K226" s="14"/>
+      <c r="L226" s="14"/>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
@@ -9389,7 +9397,7 @@
         <v>43217</v>
       </c>
       <c r="D227" s="1">
-        <f t="shared" ref="D227:D233" si="28">C227-B227</f>
+        <f>C227-B227</f>
         <v>66</v>
       </c>
       <c r="E227" s="1" t="s">
@@ -9401,17 +9409,17 @@
       <c r="G227" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H227" s="15">
-        <v>1</v>
-      </c>
-      <c r="I227" s="15">
+      <c r="H227" s="14">
+        <v>1</v>
+      </c>
+      <c r="I227" s="14">
         <v>2</v>
       </c>
-      <c r="J227" s="16">
-        <v>1</v>
-      </c>
-      <c r="K227" s="15"/>
-      <c r="L227" s="15"/>
+      <c r="J227" s="15">
+        <v>1</v>
+      </c>
+      <c r="K227" s="14"/>
+      <c r="L227" s="14"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
@@ -9424,7 +9432,7 @@
         <v>43217</v>
       </c>
       <c r="D228" s="1">
-        <f t="shared" si="28"/>
+        <f>C228-B228</f>
         <v>66</v>
       </c>
       <c r="E228" s="1" t="s">
@@ -9436,17 +9444,17 @@
       <c r="G228" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H228" s="15">
+      <c r="H228" s="14">
         <v>3</v>
       </c>
-      <c r="I228" s="15">
+      <c r="I228" s="14">
         <v>3</v>
       </c>
-      <c r="J228" s="15">
-        <v>0</v>
-      </c>
-      <c r="K228" s="15"/>
-      <c r="L228" s="15"/>
+      <c r="J228" s="14">
+        <v>0</v>
+      </c>
+      <c r="K228" s="14"/>
+      <c r="L228" s="14"/>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
@@ -9459,7 +9467,7 @@
         <v>43217</v>
       </c>
       <c r="D229" s="1">
-        <f t="shared" si="28"/>
+        <f>C229-B229</f>
         <v>66</v>
       </c>
       <c r="E229" s="3" t="s">
@@ -9471,17 +9479,17 @@
       <c r="G229" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H229" s="15">
-        <v>1</v>
-      </c>
-      <c r="I229" s="15">
+      <c r="H229" s="14">
+        <v>1</v>
+      </c>
+      <c r="I229" s="14">
         <v>2</v>
       </c>
-      <c r="J229" s="15">
-        <v>1</v>
-      </c>
-      <c r="K229" s="15"/>
-      <c r="L229" s="15"/>
+      <c r="J229" s="14">
+        <v>1</v>
+      </c>
+      <c r="K229" s="14"/>
+      <c r="L229" s="14"/>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
@@ -9494,7 +9502,7 @@
         <v>43217</v>
       </c>
       <c r="D230" s="1">
-        <f t="shared" si="28"/>
+        <f>C230-B230</f>
         <v>66</v>
       </c>
       <c r="E230" s="3" t="s">
@@ -9506,17 +9514,17 @@
       <c r="G230" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H230" s="15">
+      <c r="H230" s="14">
         <v>5</v>
       </c>
-      <c r="I230" s="15">
+      <c r="I230" s="14">
         <v>4</v>
       </c>
-      <c r="J230" s="15">
-        <v>0</v>
-      </c>
-      <c r="K230" s="15"/>
-      <c r="L230" s="15"/>
+      <c r="J230" s="14">
+        <v>0</v>
+      </c>
+      <c r="K230" s="14"/>
+      <c r="L230" s="14"/>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
@@ -9529,7 +9537,7 @@
         <v>43217</v>
       </c>
       <c r="D231" s="1">
-        <f t="shared" si="28"/>
+        <f>C231-B231</f>
         <v>66</v>
       </c>
       <c r="E231" s="1" t="s">
@@ -9541,17 +9549,17 @@
       <c r="G231" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H231" s="15">
+      <c r="H231" s="14">
         <v>2</v>
       </c>
-      <c r="I231" s="15">
-        <v>1</v>
-      </c>
-      <c r="J231" s="15">
-        <v>0</v>
-      </c>
-      <c r="K231" s="15"/>
-      <c r="L231" s="15"/>
+      <c r="I231" s="14">
+        <v>1</v>
+      </c>
+      <c r="J231" s="14">
+        <v>0</v>
+      </c>
+      <c r="K231" s="14"/>
+      <c r="L231" s="14"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
@@ -9564,7 +9572,7 @@
         <v>43217</v>
       </c>
       <c r="D232" s="1">
-        <f t="shared" si="28"/>
+        <f>C232-B232</f>
         <v>66</v>
       </c>
       <c r="E232" s="3" t="s">
@@ -9576,17 +9584,17 @@
       <c r="G232" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H232" s="15">
+      <c r="H232" s="14">
         <v>10</v>
       </c>
-      <c r="I232" s="15">
+      <c r="I232" s="14">
         <v>3</v>
       </c>
-      <c r="J232" s="15">
-        <v>0</v>
-      </c>
-      <c r="K232" s="15"/>
-      <c r="L232" s="15"/>
+      <c r="J232" s="14">
+        <v>0</v>
+      </c>
+      <c r="K232" s="14"/>
+      <c r="L232" s="14"/>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
@@ -9599,7 +9607,7 @@
         <v>43217</v>
       </c>
       <c r="D233" s="1">
-        <f t="shared" si="28"/>
+        <f>C233-B233</f>
         <v>66</v>
       </c>
       <c r="E233" s="1" t="s">
@@ -9611,17 +9619,17 @@
       <c r="G233" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H233" s="15">
-        <v>0</v>
-      </c>
-      <c r="I233" s="15">
-        <v>1</v>
-      </c>
-      <c r="J233" s="15">
-        <v>0</v>
-      </c>
-      <c r="K233" s="15"/>
-      <c r="L233" s="15"/>
+      <c r="H233" s="14">
+        <v>0</v>
+      </c>
+      <c r="I233" s="14">
+        <v>1</v>
+      </c>
+      <c r="J233" s="14">
+        <v>0</v>
+      </c>
+      <c r="K233" s="14"/>
+      <c r="L233" s="14"/>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
@@ -9646,17 +9654,17 @@
       <c r="G234" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H234" s="15">
+      <c r="H234" s="14">
         <v>2</v>
       </c>
-      <c r="I234" s="15">
-        <v>0</v>
-      </c>
-      <c r="J234" s="15">
+      <c r="I234" s="14">
+        <v>0</v>
+      </c>
+      <c r="J234" s="14">
         <v>3</v>
       </c>
-      <c r="K234" s="15"/>
-      <c r="L234" s="15"/>
+      <c r="K234" s="14"/>
+      <c r="L234" s="14"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
@@ -9669,7 +9677,7 @@
         <v>43220</v>
       </c>
       <c r="D235" s="1">
-        <f t="shared" ref="D235:D241" si="29">C235-B235</f>
+        <f>C235-B235</f>
         <v>69</v>
       </c>
       <c r="E235" s="1" t="s">
@@ -9681,17 +9689,17 @@
       <c r="G235" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H235" s="15">
+      <c r="H235" s="14">
         <v>4</v>
       </c>
-      <c r="I235" s="15">
-        <v>0</v>
-      </c>
-      <c r="J235" s="16">
-        <v>0</v>
-      </c>
-      <c r="K235" s="15"/>
-      <c r="L235" s="15"/>
+      <c r="I235" s="14">
+        <v>0</v>
+      </c>
+      <c r="J235" s="15">
+        <v>0</v>
+      </c>
+      <c r="K235" s="14"/>
+      <c r="L235" s="14"/>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
@@ -9704,7 +9712,7 @@
         <v>43220</v>
       </c>
       <c r="D236" s="1">
-        <f t="shared" si="29"/>
+        <f>C236-B236</f>
         <v>69</v>
       </c>
       <c r="E236" s="1" t="s">
@@ -9716,17 +9724,17 @@
       <c r="G236" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H236" s="15">
-        <v>1</v>
-      </c>
-      <c r="I236" s="15">
-        <v>0</v>
-      </c>
-      <c r="J236" s="15">
-        <v>1</v>
-      </c>
-      <c r="K236" s="15"/>
-      <c r="L236" s="15"/>
+      <c r="H236" s="14">
+        <v>1</v>
+      </c>
+      <c r="I236" s="14">
+        <v>0</v>
+      </c>
+      <c r="J236" s="14">
+        <v>1</v>
+      </c>
+      <c r="K236" s="14"/>
+      <c r="L236" s="14"/>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
@@ -9739,7 +9747,7 @@
         <v>43220</v>
       </c>
       <c r="D237" s="1">
-        <f t="shared" si="29"/>
+        <f>C237-B237</f>
         <v>69</v>
       </c>
       <c r="E237" s="3" t="s">
@@ -9751,17 +9759,17 @@
       <c r="G237" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H237" s="15">
+      <c r="H237" s="14">
         <v>3</v>
       </c>
-      <c r="I237" s="15">
-        <v>0</v>
-      </c>
-      <c r="J237" s="15">
+      <c r="I237" s="14">
+        <v>0</v>
+      </c>
+      <c r="J237" s="14">
         <v>2</v>
       </c>
-      <c r="K237" s="15"/>
-      <c r="L237" s="15"/>
+      <c r="K237" s="14"/>
+      <c r="L237" s="14"/>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
@@ -9774,7 +9782,7 @@
         <v>43220</v>
       </c>
       <c r="D238" s="1">
-        <f t="shared" si="29"/>
+        <f>C238-B238</f>
         <v>69</v>
       </c>
       <c r="E238" s="3" t="s">
@@ -9786,17 +9794,17 @@
       <c r="G238" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H238" s="15">
+      <c r="H238" s="14">
         <v>3</v>
       </c>
-      <c r="I238" s="15">
+      <c r="I238" s="14">
         <v>4</v>
       </c>
-      <c r="J238" s="15">
-        <v>1</v>
-      </c>
-      <c r="K238" s="15"/>
-      <c r="L238" s="15"/>
+      <c r="J238" s="14">
+        <v>1</v>
+      </c>
+      <c r="K238" s="14"/>
+      <c r="L238" s="14"/>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
@@ -9809,7 +9817,7 @@
         <v>43220</v>
       </c>
       <c r="D239" s="1">
-        <f t="shared" si="29"/>
+        <f>C239-B239</f>
         <v>69</v>
       </c>
       <c r="E239" s="1" t="s">
@@ -9821,17 +9829,17 @@
       <c r="G239" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H239" s="15">
+      <c r="H239" s="14">
         <v>4</v>
       </c>
-      <c r="I239" s="15">
+      <c r="I239" s="14">
         <v>2</v>
       </c>
       <c r="J239" s="10">
         <v>11</v>
       </c>
-      <c r="K239" s="15"/>
-      <c r="L239" s="15"/>
+      <c r="K239" s="14"/>
+      <c r="L239" s="14"/>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
@@ -9844,7 +9852,7 @@
         <v>43220</v>
       </c>
       <c r="D240" s="1">
-        <f t="shared" si="29"/>
+        <f>C240-B240</f>
         <v>69</v>
       </c>
       <c r="E240" s="3" t="s">
@@ -9856,17 +9864,17 @@
       <c r="G240" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H240" s="15">
+      <c r="H240" s="14">
         <v>6</v>
       </c>
-      <c r="I240" s="15">
+      <c r="I240" s="14">
         <v>4</v>
       </c>
-      <c r="J240" s="15">
+      <c r="J240" s="14">
         <v>2</v>
       </c>
-      <c r="K240" s="15"/>
-      <c r="L240" s="15"/>
+      <c r="K240" s="14"/>
+      <c r="L240" s="14"/>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
@@ -9879,7 +9887,7 @@
         <v>43220</v>
       </c>
       <c r="D241" s="1">
-        <f t="shared" si="29"/>
+        <f>C241-B241</f>
         <v>69</v>
       </c>
       <c r="E241" s="1" t="s">
@@ -9891,17 +9899,17 @@
       <c r="G241" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H241" s="15">
+      <c r="H241" s="14">
         <v>2</v>
       </c>
-      <c r="I241" s="15">
-        <v>0</v>
-      </c>
-      <c r="J241" s="15">
-        <v>0</v>
-      </c>
-      <c r="K241" s="15"/>
-      <c r="L241" s="15"/>
+      <c r="I241" s="14">
+        <v>0</v>
+      </c>
+      <c r="J241" s="14">
+        <v>0</v>
+      </c>
+      <c r="K241" s="14"/>
+      <c r="L241" s="14"/>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
@@ -9926,17 +9934,17 @@
       <c r="G242" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H242" s="15">
-        <v>0</v>
-      </c>
-      <c r="I242" s="15">
-        <v>0</v>
-      </c>
-      <c r="J242" s="15">
-        <v>0</v>
-      </c>
-      <c r="K242" s="15"/>
-      <c r="L242" s="15"/>
+      <c r="H242" s="14">
+        <v>0</v>
+      </c>
+      <c r="I242" s="14">
+        <v>0</v>
+      </c>
+      <c r="J242" s="14">
+        <v>0</v>
+      </c>
+      <c r="K242" s="14"/>
+      <c r="L242" s="14"/>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
@@ -9949,7 +9957,7 @@
         <v>43222</v>
       </c>
       <c r="D243" s="1">
-        <f t="shared" ref="D243:D249" si="30">C243-B243</f>
+        <f>C243-B243</f>
         <v>71</v>
       </c>
       <c r="E243" s="1" t="s">
@@ -9961,17 +9969,17 @@
       <c r="G243" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H243" s="15">
-        <v>0</v>
-      </c>
-      <c r="I243" s="15">
-        <v>1</v>
-      </c>
-      <c r="J243" s="16">
-        <v>0</v>
-      </c>
-      <c r="K243" s="15"/>
-      <c r="L243" s="15"/>
+      <c r="H243" s="14">
+        <v>0</v>
+      </c>
+      <c r="I243" s="14">
+        <v>1</v>
+      </c>
+      <c r="J243" s="15">
+        <v>0</v>
+      </c>
+      <c r="K243" s="14"/>
+      <c r="L243" s="14"/>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
@@ -9984,7 +9992,7 @@
         <v>43222</v>
       </c>
       <c r="D244" s="1">
-        <f t="shared" si="30"/>
+        <f>C244-B244</f>
         <v>71</v>
       </c>
       <c r="E244" s="1" t="s">
@@ -9996,17 +10004,17 @@
       <c r="G244" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H244" s="15">
-        <v>1</v>
-      </c>
-      <c r="I244" s="15">
+      <c r="H244" s="14">
+        <v>1</v>
+      </c>
+      <c r="I244" s="14">
         <v>3</v>
       </c>
-      <c r="J244" s="15">
-        <v>0</v>
-      </c>
-      <c r="K244" s="15"/>
-      <c r="L244" s="15"/>
+      <c r="J244" s="14">
+        <v>0</v>
+      </c>
+      <c r="K244" s="14"/>
+      <c r="L244" s="14"/>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
@@ -10019,7 +10027,7 @@
         <v>43222</v>
       </c>
       <c r="D245" s="1">
-        <f t="shared" si="30"/>
+        <f>C245-B245</f>
         <v>71</v>
       </c>
       <c r="E245" s="3" t="s">
@@ -10031,17 +10039,17 @@
       <c r="G245" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H245" s="15">
-        <v>0</v>
-      </c>
-      <c r="I245" s="15">
-        <v>1</v>
-      </c>
-      <c r="J245" s="16">
-        <v>0</v>
-      </c>
-      <c r="K245" s="15"/>
-      <c r="L245" s="15"/>
+      <c r="H245" s="14">
+        <v>0</v>
+      </c>
+      <c r="I245" s="14">
+        <v>1</v>
+      </c>
+      <c r="J245" s="15">
+        <v>0</v>
+      </c>
+      <c r="K245" s="14"/>
+      <c r="L245" s="14"/>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
@@ -10054,7 +10062,7 @@
         <v>43222</v>
       </c>
       <c r="D246" s="1">
-        <f t="shared" si="30"/>
+        <f>C246-B246</f>
         <v>71</v>
       </c>
       <c r="E246" s="3" t="s">
@@ -10066,17 +10074,17 @@
       <c r="G246" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H246" s="15">
+      <c r="H246" s="14">
         <v>3</v>
       </c>
-      <c r="I246" s="15">
+      <c r="I246" s="14">
         <v>3</v>
       </c>
-      <c r="J246" s="15">
-        <v>0</v>
-      </c>
-      <c r="K246" s="15"/>
-      <c r="L246" s="15"/>
+      <c r="J246" s="14">
+        <v>0</v>
+      </c>
+      <c r="K246" s="14"/>
+      <c r="L246" s="14"/>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
@@ -10089,7 +10097,7 @@
         <v>43222</v>
       </c>
       <c r="D247" s="1">
-        <f t="shared" si="30"/>
+        <f>C247-B247</f>
         <v>71</v>
       </c>
       <c r="E247" s="1" t="s">
@@ -10101,17 +10109,17 @@
       <c r="G247" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H247" s="15">
+      <c r="H247" s="14">
         <v>4</v>
       </c>
-      <c r="I247" s="15">
+      <c r="I247" s="14">
         <v>3</v>
       </c>
-      <c r="J247" s="16">
-        <v>0</v>
-      </c>
-      <c r="K247" s="15"/>
-      <c r="L247" s="15"/>
+      <c r="J247" s="15">
+        <v>0</v>
+      </c>
+      <c r="K247" s="14"/>
+      <c r="L247" s="14"/>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
@@ -10124,7 +10132,7 @@
         <v>43222</v>
       </c>
       <c r="D248" s="1">
-        <f t="shared" si="30"/>
+        <f>C248-B248</f>
         <v>71</v>
       </c>
       <c r="E248" s="3" t="s">
@@ -10136,17 +10144,17 @@
       <c r="G248" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H248" s="15">
-        <v>0</v>
-      </c>
-      <c r="I248" s="15">
+      <c r="H248" s="14">
+        <v>0</v>
+      </c>
+      <c r="I248" s="14">
         <v>3</v>
       </c>
-      <c r="J248" s="15">
-        <v>0</v>
-      </c>
-      <c r="K248" s="15"/>
-      <c r="L248" s="15"/>
+      <c r="J248" s="14">
+        <v>0</v>
+      </c>
+      <c r="K248" s="14"/>
+      <c r="L248" s="14"/>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
@@ -10159,7 +10167,7 @@
         <v>43222</v>
       </c>
       <c r="D249" s="1">
-        <f t="shared" si="30"/>
+        <f>C249-B249</f>
         <v>71</v>
       </c>
       <c r="E249" s="1" t="s">
@@ -10171,17 +10179,17 @@
       <c r="G249" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H249" s="15">
-        <v>0</v>
-      </c>
-      <c r="I249" s="15">
-        <v>0</v>
-      </c>
-      <c r="J249" s="15">
-        <v>0</v>
-      </c>
-      <c r="K249" s="15"/>
-      <c r="L249" s="15"/>
+      <c r="H249" s="14">
+        <v>0</v>
+      </c>
+      <c r="I249" s="14">
+        <v>0</v>
+      </c>
+      <c r="J249" s="14">
+        <v>0</v>
+      </c>
+      <c r="K249" s="14"/>
+      <c r="L249" s="14"/>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
@@ -10206,17 +10214,17 @@
       <c r="G250" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H250" s="15">
-        <v>1</v>
-      </c>
-      <c r="I250" s="15">
-        <v>1</v>
-      </c>
-      <c r="J250" s="15">
-        <v>0</v>
-      </c>
-      <c r="K250" s="15"/>
-      <c r="L250" s="15"/>
+      <c r="H250" s="14">
+        <v>1</v>
+      </c>
+      <c r="I250" s="14">
+        <v>1</v>
+      </c>
+      <c r="J250" s="14">
+        <v>0</v>
+      </c>
+      <c r="K250" s="14"/>
+      <c r="L250" s="14"/>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
@@ -10229,7 +10237,7 @@
         <v>43224</v>
       </c>
       <c r="D251" s="1">
-        <f t="shared" ref="D251:D257" si="31">C251-B251</f>
+        <f>C251-B251</f>
         <v>73</v>
       </c>
       <c r="E251" s="1" t="s">
@@ -10241,17 +10249,17 @@
       <c r="G251" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H251" s="15">
-        <v>1</v>
-      </c>
-      <c r="I251" s="15">
-        <v>0</v>
-      </c>
-      <c r="J251" s="16">
-        <v>0</v>
-      </c>
-      <c r="K251" s="15"/>
-      <c r="L251" s="15"/>
+      <c r="H251" s="14">
+        <v>1</v>
+      </c>
+      <c r="I251" s="14">
+        <v>0</v>
+      </c>
+      <c r="J251" s="15">
+        <v>0</v>
+      </c>
+      <c r="K251" s="14"/>
+      <c r="L251" s="14"/>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
@@ -10264,7 +10272,7 @@
         <v>43224</v>
       </c>
       <c r="D252" s="1">
-        <f t="shared" si="31"/>
+        <f>C252-B252</f>
         <v>73</v>
       </c>
       <c r="E252" s="1" t="s">
@@ -10276,17 +10284,17 @@
       <c r="G252" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H252" s="15">
-        <v>1</v>
-      </c>
-      <c r="I252" s="15">
-        <v>0</v>
-      </c>
-      <c r="J252" s="15">
-        <v>0</v>
-      </c>
-      <c r="K252" s="15"/>
-      <c r="L252" s="15"/>
+      <c r="H252" s="14">
+        <v>1</v>
+      </c>
+      <c r="I252" s="14">
+        <v>0</v>
+      </c>
+      <c r="J252" s="14">
+        <v>0</v>
+      </c>
+      <c r="K252" s="14"/>
+      <c r="L252" s="14"/>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
@@ -10299,7 +10307,7 @@
         <v>43224</v>
       </c>
       <c r="D253" s="1">
-        <f t="shared" si="31"/>
+        <f>C253-B253</f>
         <v>73</v>
       </c>
       <c r="E253" s="3" t="s">
@@ -10311,17 +10319,17 @@
       <c r="G253" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H253" s="15">
-        <v>1</v>
-      </c>
-      <c r="I253" s="15">
-        <v>0</v>
-      </c>
-      <c r="J253" s="16">
-        <v>0</v>
-      </c>
-      <c r="K253" s="15"/>
-      <c r="L253" s="15"/>
+      <c r="H253" s="14">
+        <v>1</v>
+      </c>
+      <c r="I253" s="14">
+        <v>0</v>
+      </c>
+      <c r="J253" s="15">
+        <v>0</v>
+      </c>
+      <c r="K253" s="14"/>
+      <c r="L253" s="14"/>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
@@ -10334,7 +10342,7 @@
         <v>43224</v>
       </c>
       <c r="D254" s="1">
-        <f t="shared" si="31"/>
+        <f>C254-B254</f>
         <v>73</v>
       </c>
       <c r="E254" s="3" t="s">
@@ -10346,17 +10354,17 @@
       <c r="G254" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H254" s="15">
+      <c r="H254" s="14">
         <v>2</v>
       </c>
-      <c r="I254" s="15">
-        <v>1</v>
-      </c>
-      <c r="J254" s="15">
-        <v>0</v>
-      </c>
-      <c r="K254" s="15"/>
-      <c r="L254" s="15"/>
+      <c r="I254" s="14">
+        <v>1</v>
+      </c>
+      <c r="J254" s="14">
+        <v>0</v>
+      </c>
+      <c r="K254" s="14"/>
+      <c r="L254" s="14"/>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
@@ -10369,7 +10377,7 @@
         <v>43224</v>
       </c>
       <c r="D255" s="1">
-        <f t="shared" si="31"/>
+        <f>C255-B255</f>
         <v>73</v>
       </c>
       <c r="E255" s="1" t="s">
@@ -10381,17 +10389,17 @@
       <c r="G255" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H255" s="15">
+      <c r="H255" s="14">
         <v>3</v>
       </c>
-      <c r="I255" s="15">
-        <v>0</v>
-      </c>
-      <c r="J255" s="16">
-        <v>0</v>
-      </c>
-      <c r="K255" s="15"/>
-      <c r="L255" s="15"/>
+      <c r="I255" s="14">
+        <v>0</v>
+      </c>
+      <c r="J255" s="15">
+        <v>0</v>
+      </c>
+      <c r="K255" s="14"/>
+      <c r="L255" s="14"/>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
@@ -10404,7 +10412,7 @@
         <v>43224</v>
       </c>
       <c r="D256" s="1">
-        <f t="shared" si="31"/>
+        <f>C256-B256</f>
         <v>73</v>
       </c>
       <c r="E256" s="3" t="s">
@@ -10416,17 +10424,17 @@
       <c r="G256" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H256" s="15">
-        <v>1</v>
-      </c>
-      <c r="I256" s="15">
-        <v>0</v>
-      </c>
-      <c r="J256" s="15">
-        <v>0</v>
-      </c>
-      <c r="K256" s="15"/>
-      <c r="L256" s="15"/>
+      <c r="H256" s="14">
+        <v>1</v>
+      </c>
+      <c r="I256" s="14">
+        <v>0</v>
+      </c>
+      <c r="J256" s="14">
+        <v>0</v>
+      </c>
+      <c r="K256" s="14"/>
+      <c r="L256" s="14"/>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
@@ -10439,7 +10447,7 @@
         <v>43224</v>
       </c>
       <c r="D257" s="1">
-        <f t="shared" si="31"/>
+        <f>C257-B257</f>
         <v>73</v>
       </c>
       <c r="E257" s="1" t="s">
@@ -10451,17 +10459,17 @@
       <c r="G257" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H257" s="15">
-        <v>1</v>
-      </c>
-      <c r="I257" s="15">
-        <v>0</v>
-      </c>
-      <c r="J257" s="15">
-        <v>0</v>
-      </c>
-      <c r="K257" s="15"/>
-      <c r="L257" s="15"/>
+      <c r="H257" s="14">
+        <v>1</v>
+      </c>
+      <c r="I257" s="14">
+        <v>0</v>
+      </c>
+      <c r="J257" s="14">
+        <v>0</v>
+      </c>
+      <c r="K257" s="14"/>
+      <c r="L257" s="14"/>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
@@ -10486,17 +10494,17 @@
       <c r="G258" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H258" s="15">
-        <v>0</v>
-      </c>
-      <c r="I258" s="15">
+      <c r="H258" s="14">
+        <v>0</v>
+      </c>
+      <c r="I258" s="14">
         <v>2</v>
       </c>
-      <c r="J258" s="15">
-        <v>0</v>
-      </c>
-      <c r="K258" s="15"/>
-      <c r="L258" s="15"/>
+      <c r="J258" s="14">
+        <v>0</v>
+      </c>
+      <c r="K258" s="14"/>
+      <c r="L258" s="14"/>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
@@ -10509,7 +10517,7 @@
         <v>43227</v>
       </c>
       <c r="D259" s="1">
-        <f t="shared" ref="D259:D265" si="32">C259-B259</f>
+        <f>C259-B259</f>
         <v>76</v>
       </c>
       <c r="E259" s="1" t="s">
@@ -10521,17 +10529,17 @@
       <c r="G259" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H259" s="16">
-        <v>0</v>
-      </c>
-      <c r="I259" s="15">
+      <c r="H259" s="15">
+        <v>0</v>
+      </c>
+      <c r="I259" s="14">
         <v>2</v>
       </c>
-      <c r="J259" s="16">
-        <v>0</v>
-      </c>
-      <c r="K259" s="15"/>
-      <c r="L259" s="15"/>
+      <c r="J259" s="15">
+        <v>0</v>
+      </c>
+      <c r="K259" s="14"/>
+      <c r="L259" s="14"/>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
@@ -10544,7 +10552,7 @@
         <v>43227</v>
       </c>
       <c r="D260" s="1">
-        <f t="shared" si="32"/>
+        <f>C260-B260</f>
         <v>76</v>
       </c>
       <c r="E260" s="1" t="s">
@@ -10556,17 +10564,17 @@
       <c r="G260" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H260" s="15">
-        <v>0</v>
-      </c>
-      <c r="I260" s="15">
-        <v>1</v>
-      </c>
-      <c r="J260" s="15">
-        <v>0</v>
-      </c>
-      <c r="K260" s="15"/>
-      <c r="L260" s="15"/>
+      <c r="H260" s="14">
+        <v>0</v>
+      </c>
+      <c r="I260" s="14">
+        <v>1</v>
+      </c>
+      <c r="J260" s="14">
+        <v>0</v>
+      </c>
+      <c r="K260" s="14"/>
+      <c r="L260" s="14"/>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
@@ -10579,7 +10587,7 @@
         <v>43227</v>
       </c>
       <c r="D261" s="1">
-        <f t="shared" si="32"/>
+        <f>C261-B261</f>
         <v>76</v>
       </c>
       <c r="E261" s="3" t="s">
@@ -10591,17 +10599,17 @@
       <c r="G261" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H261" s="15">
-        <v>0</v>
-      </c>
-      <c r="I261" s="15">
+      <c r="H261" s="14">
+        <v>0</v>
+      </c>
+      <c r="I261" s="14">
         <v>3</v>
       </c>
-      <c r="J261" s="16">
-        <v>0</v>
-      </c>
-      <c r="K261" s="15"/>
-      <c r="L261" s="15"/>
+      <c r="J261" s="15">
+        <v>0</v>
+      </c>
+      <c r="K261" s="14"/>
+      <c r="L261" s="14"/>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
@@ -10614,7 +10622,7 @@
         <v>43227</v>
       </c>
       <c r="D262" s="1">
-        <f t="shared" si="32"/>
+        <f>C262-B262</f>
         <v>76</v>
       </c>
       <c r="E262" s="3" t="s">
@@ -10626,17 +10634,17 @@
       <c r="G262" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H262" s="15">
-        <v>1</v>
-      </c>
-      <c r="I262" s="15">
-        <v>0</v>
-      </c>
-      <c r="J262" s="15">
-        <v>0</v>
-      </c>
-      <c r="K262" s="15"/>
-      <c r="L262" s="15"/>
+      <c r="H262" s="14">
+        <v>1</v>
+      </c>
+      <c r="I262" s="14">
+        <v>0</v>
+      </c>
+      <c r="J262" s="14">
+        <v>0</v>
+      </c>
+      <c r="K262" s="14"/>
+      <c r="L262" s="14"/>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
@@ -10649,7 +10657,7 @@
         <v>43227</v>
       </c>
       <c r="D263" s="1">
-        <f t="shared" si="32"/>
+        <f>C263-B263</f>
         <v>76</v>
       </c>
       <c r="E263" s="1" t="s">
@@ -10661,17 +10669,17 @@
       <c r="G263" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H263" s="15">
-        <v>0</v>
-      </c>
-      <c r="I263" s="15">
+      <c r="H263" s="14">
+        <v>0</v>
+      </c>
+      <c r="I263" s="14">
         <v>9</v>
       </c>
-      <c r="J263" s="16">
-        <v>0</v>
-      </c>
-      <c r="K263" s="15"/>
-      <c r="L263" s="15"/>
+      <c r="J263" s="15">
+        <v>0</v>
+      </c>
+      <c r="K263" s="14"/>
+      <c r="L263" s="14"/>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
@@ -10684,7 +10692,7 @@
         <v>43227</v>
       </c>
       <c r="D264" s="1">
-        <f t="shared" si="32"/>
+        <f>C264-B264</f>
         <v>76</v>
       </c>
       <c r="E264" s="3" t="s">
@@ -10696,17 +10704,17 @@
       <c r="G264" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H264" s="15">
-        <v>0</v>
-      </c>
-      <c r="I264" s="15">
+      <c r="H264" s="14">
+        <v>0</v>
+      </c>
+      <c r="I264" s="14">
         <v>5</v>
       </c>
-      <c r="J264" s="15">
-        <v>0</v>
-      </c>
-      <c r="K264" s="15"/>
-      <c r="L264" s="15"/>
+      <c r="J264" s="14">
+        <v>0</v>
+      </c>
+      <c r="K264" s="14"/>
+      <c r="L264" s="14"/>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
@@ -10719,7 +10727,7 @@
         <v>43227</v>
       </c>
       <c r="D265" s="1">
-        <f t="shared" si="32"/>
+        <f>C265-B265</f>
         <v>76</v>
       </c>
       <c r="E265" s="1" t="s">
@@ -10731,18 +10739,18 @@
       <c r="G265" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H265" s="15">
-        <v>1</v>
-      </c>
-      <c r="I265" s="18">
+      <c r="H265" s="14">
+        <v>1</v>
+      </c>
+      <c r="I265" s="17">
         <v>8</v>
       </c>
-      <c r="J265" s="15">
-        <v>0</v>
-      </c>
-      <c r="K265" s="15"/>
-      <c r="L265" s="15"/>
-      <c r="M265" s="19" t="s">
+      <c r="J265" s="14">
+        <v>0</v>
+      </c>
+      <c r="K265" s="14"/>
+      <c r="L265" s="14"/>
+      <c r="M265" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10769,17 +10777,17 @@
       <c r="G266" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H266" s="15">
-        <v>0</v>
-      </c>
-      <c r="I266" s="15">
-        <v>1</v>
-      </c>
-      <c r="J266" s="15">
-        <v>0</v>
-      </c>
-      <c r="K266" s="15"/>
-      <c r="L266" s="15"/>
+      <c r="H266" s="14">
+        <v>0</v>
+      </c>
+      <c r="I266" s="14">
+        <v>1</v>
+      </c>
+      <c r="J266" s="14">
+        <v>0</v>
+      </c>
+      <c r="K266" s="14"/>
+      <c r="L266" s="14"/>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
@@ -10792,7 +10800,7 @@
         <v>43229</v>
       </c>
       <c r="D267" s="1">
-        <f t="shared" ref="D267:D273" si="33">C267-B267</f>
+        <f>C267-B267</f>
         <v>78</v>
       </c>
       <c r="E267" s="1" t="s">
@@ -10804,17 +10812,17 @@
       <c r="G267" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H267" s="16">
-        <v>0</v>
-      </c>
-      <c r="I267" s="15">
-        <v>1</v>
-      </c>
-      <c r="J267" s="16">
-        <v>0</v>
-      </c>
-      <c r="K267" s="15"/>
-      <c r="L267" s="15"/>
+      <c r="H267" s="15">
+        <v>0</v>
+      </c>
+      <c r="I267" s="14">
+        <v>1</v>
+      </c>
+      <c r="J267" s="15">
+        <v>0</v>
+      </c>
+      <c r="K267" s="14"/>
+      <c r="L267" s="14"/>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
@@ -10827,7 +10835,7 @@
         <v>43229</v>
       </c>
       <c r="D268" s="1">
-        <f t="shared" si="33"/>
+        <f>C268-B268</f>
         <v>78</v>
       </c>
       <c r="E268" s="1" t="s">
@@ -10839,17 +10847,17 @@
       <c r="G268" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H268" s="15">
-        <v>0</v>
-      </c>
-      <c r="I268" s="15">
-        <v>0</v>
-      </c>
-      <c r="J268" s="15">
-        <v>0</v>
-      </c>
-      <c r="K268" s="15"/>
-      <c r="L268" s="15"/>
+      <c r="H268" s="14">
+        <v>0</v>
+      </c>
+      <c r="I268" s="14">
+        <v>0</v>
+      </c>
+      <c r="J268" s="14">
+        <v>0</v>
+      </c>
+      <c r="K268" s="14"/>
+      <c r="L268" s="14"/>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
@@ -10862,7 +10870,7 @@
         <v>43229</v>
       </c>
       <c r="D269" s="1">
-        <f t="shared" si="33"/>
+        <f>C269-B269</f>
         <v>78</v>
       </c>
       <c r="E269" s="3" t="s">
@@ -10874,17 +10882,17 @@
       <c r="G269" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H269" s="16">
-        <v>0</v>
-      </c>
-      <c r="I269" s="15">
-        <v>1</v>
-      </c>
-      <c r="J269" s="16">
-        <v>0</v>
-      </c>
-      <c r="K269" s="15"/>
-      <c r="L269" s="15"/>
+      <c r="H269" s="15">
+        <v>0</v>
+      </c>
+      <c r="I269" s="14">
+        <v>1</v>
+      </c>
+      <c r="J269" s="15">
+        <v>0</v>
+      </c>
+      <c r="K269" s="14"/>
+      <c r="L269" s="14"/>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
@@ -10897,7 +10905,7 @@
         <v>43229</v>
       </c>
       <c r="D270" s="1">
-        <f t="shared" si="33"/>
+        <f>C270-B270</f>
         <v>78</v>
       </c>
       <c r="E270" s="3" t="s">
@@ -10909,17 +10917,17 @@
       <c r="G270" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H270" s="15">
-        <v>0</v>
-      </c>
-      <c r="I270" s="15">
-        <v>1</v>
-      </c>
-      <c r="J270" s="15">
-        <v>0</v>
-      </c>
-      <c r="K270" s="15"/>
-      <c r="L270" s="15"/>
+      <c r="H270" s="14">
+        <v>0</v>
+      </c>
+      <c r="I270" s="14">
+        <v>1</v>
+      </c>
+      <c r="J270" s="14">
+        <v>0</v>
+      </c>
+      <c r="K270" s="14"/>
+      <c r="L270" s="14"/>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
@@ -10932,7 +10940,7 @@
         <v>43229</v>
       </c>
       <c r="D271" s="1">
-        <f t="shared" si="33"/>
+        <f>C271-B271</f>
         <v>78</v>
       </c>
       <c r="E271" s="1" t="s">
@@ -10944,17 +10952,17 @@
       <c r="G271" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H271" s="16">
-        <v>0</v>
-      </c>
-      <c r="I271" s="15">
-        <v>0</v>
-      </c>
-      <c r="J271" s="16">
-        <v>0</v>
-      </c>
-      <c r="K271" s="15"/>
-      <c r="L271" s="15"/>
+      <c r="H271" s="15">
+        <v>0</v>
+      </c>
+      <c r="I271" s="14">
+        <v>0</v>
+      </c>
+      <c r="J271" s="15">
+        <v>0</v>
+      </c>
+      <c r="K271" s="14"/>
+      <c r="L271" s="14"/>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
@@ -10967,7 +10975,7 @@
         <v>43229</v>
       </c>
       <c r="D272" s="1">
-        <f t="shared" si="33"/>
+        <f>C272-B272</f>
         <v>78</v>
       </c>
       <c r="E272" s="3" t="s">
@@ -10979,17 +10987,17 @@
       <c r="G272" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H272" s="15">
-        <v>0</v>
-      </c>
-      <c r="I272" s="15">
-        <v>0</v>
-      </c>
-      <c r="J272" s="15">
-        <v>0</v>
-      </c>
-      <c r="K272" s="15"/>
-      <c r="L272" s="15"/>
+      <c r="H272" s="14">
+        <v>0</v>
+      </c>
+      <c r="I272" s="14">
+        <v>0</v>
+      </c>
+      <c r="J272" s="14">
+        <v>0</v>
+      </c>
+      <c r="K272" s="14"/>
+      <c r="L272" s="14"/>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
@@ -11002,7 +11010,7 @@
         <v>43229</v>
       </c>
       <c r="D273" s="1">
-        <f t="shared" si="33"/>
+        <f>C273-B273</f>
         <v>78</v>
       </c>
       <c r="E273" s="1" t="s">
@@ -11014,17 +11022,17 @@
       <c r="G273" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H273" s="15">
-        <v>0</v>
-      </c>
-      <c r="I273" s="20">
-        <v>1</v>
-      </c>
-      <c r="J273" s="15">
-        <v>0</v>
-      </c>
-      <c r="K273" s="15"/>
-      <c r="L273" s="15"/>
+      <c r="H273" s="14">
+        <v>0</v>
+      </c>
+      <c r="I273" s="19">
+        <v>1</v>
+      </c>
+      <c r="J273" s="14">
+        <v>0</v>
+      </c>
+      <c r="K273" s="14"/>
+      <c r="L273" s="14"/>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
@@ -11049,17 +11057,17 @@
       <c r="G274" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H274" s="15">
+      <c r="H274" s="14">
         <v>2</v>
       </c>
-      <c r="I274" s="15">
-        <v>1</v>
-      </c>
-      <c r="J274" s="15">
-        <v>0</v>
-      </c>
-      <c r="K274" s="15"/>
-      <c r="L274" s="15"/>
+      <c r="I274" s="14">
+        <v>1</v>
+      </c>
+      <c r="J274" s="14">
+        <v>0</v>
+      </c>
+      <c r="K274" s="14"/>
+      <c r="L274" s="14"/>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
@@ -11072,7 +11080,7 @@
         <v>43231</v>
       </c>
       <c r="D275" s="1">
-        <f t="shared" ref="D275:D281" si="34">C275-B275</f>
+        <f>C275-B275</f>
         <v>80</v>
       </c>
       <c r="E275" s="1" t="s">
@@ -11084,17 +11092,17 @@
       <c r="G275" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H275" s="16">
-        <v>1</v>
-      </c>
-      <c r="I275" s="15">
-        <v>0</v>
-      </c>
-      <c r="J275" s="16">
-        <v>0</v>
-      </c>
-      <c r="K275" s="15"/>
-      <c r="L275" s="15"/>
+      <c r="H275" s="15">
+        <v>1</v>
+      </c>
+      <c r="I275" s="14">
+        <v>0</v>
+      </c>
+      <c r="J275" s="15">
+        <v>0</v>
+      </c>
+      <c r="K275" s="14"/>
+      <c r="L275" s="14"/>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
@@ -11107,7 +11115,7 @@
         <v>43231</v>
       </c>
       <c r="D276" s="1">
-        <f t="shared" si="34"/>
+        <f>C276-B276</f>
         <v>80</v>
       </c>
       <c r="E276" s="1" t="s">
@@ -11119,17 +11127,17 @@
       <c r="G276" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H276" s="15">
-        <v>1</v>
-      </c>
-      <c r="I276" s="15">
+      <c r="H276" s="14">
+        <v>1</v>
+      </c>
+      <c r="I276" s="14">
         <v>3</v>
       </c>
-      <c r="J276" s="15">
-        <v>0</v>
-      </c>
-      <c r="K276" s="15"/>
-      <c r="L276" s="15"/>
+      <c r="J276" s="14">
+        <v>0</v>
+      </c>
+      <c r="K276" s="14"/>
+      <c r="L276" s="14"/>
       <c r="M276" t="s">
         <v>30</v>
       </c>
@@ -11145,7 +11153,7 @@
         <v>43231</v>
       </c>
       <c r="D277" s="1">
-        <f t="shared" si="34"/>
+        <f>C277-B277</f>
         <v>80</v>
       </c>
       <c r="E277" s="3" t="s">
@@ -11157,17 +11165,17 @@
       <c r="G277" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H277" s="16">
-        <v>1</v>
-      </c>
-      <c r="I277" s="15">
-        <v>0</v>
-      </c>
-      <c r="J277" s="15">
-        <v>0</v>
-      </c>
-      <c r="K277" s="15"/>
-      <c r="L277" s="15"/>
+      <c r="H277" s="15">
+        <v>1</v>
+      </c>
+      <c r="I277" s="14">
+        <v>0</v>
+      </c>
+      <c r="J277" s="14">
+        <v>0</v>
+      </c>
+      <c r="K277" s="14"/>
+      <c r="L277" s="14"/>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
@@ -11180,7 +11188,7 @@
         <v>43231</v>
       </c>
       <c r="D278" s="1">
-        <f t="shared" si="34"/>
+        <f>C278-B278</f>
         <v>80</v>
       </c>
       <c r="E278" s="3" t="s">
@@ -11192,17 +11200,17 @@
       <c r="G278" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H278" s="15">
-        <v>0</v>
-      </c>
-      <c r="I278" s="15">
-        <v>1</v>
-      </c>
-      <c r="J278" s="16">
-        <v>0</v>
-      </c>
-      <c r="K278" s="15"/>
-      <c r="L278" s="15"/>
+      <c r="H278" s="14">
+        <v>0</v>
+      </c>
+      <c r="I278" s="14">
+        <v>1</v>
+      </c>
+      <c r="J278" s="15">
+        <v>0</v>
+      </c>
+      <c r="K278" s="14"/>
+      <c r="L278" s="14"/>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
@@ -11215,7 +11223,7 @@
         <v>43231</v>
       </c>
       <c r="D279" s="1">
-        <f t="shared" si="34"/>
+        <f>C279-B279</f>
         <v>80</v>
       </c>
       <c r="E279" s="1" t="s">
@@ -11227,17 +11235,17 @@
       <c r="G279" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H279" s="12">
+      <c r="H279" s="11">
         <v>3</v>
       </c>
-      <c r="I279" s="15">
-        <v>1</v>
-      </c>
-      <c r="J279" s="15">
-        <v>0</v>
-      </c>
-      <c r="K279" s="15"/>
-      <c r="L279" s="15"/>
+      <c r="I279" s="14">
+        <v>1</v>
+      </c>
+      <c r="J279" s="14">
+        <v>0</v>
+      </c>
+      <c r="K279" s="14"/>
+      <c r="L279" s="14"/>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
@@ -11250,7 +11258,7 @@
         <v>43231</v>
       </c>
       <c r="D280" s="1">
-        <f t="shared" si="34"/>
+        <f>C280-B280</f>
         <v>80</v>
       </c>
       <c r="E280" s="3" t="s">
@@ -11262,17 +11270,17 @@
       <c r="G280" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H280" s="15">
-        <v>1</v>
-      </c>
-      <c r="I280" s="15">
-        <v>0</v>
-      </c>
-      <c r="J280" s="15">
-        <v>0</v>
-      </c>
-      <c r="K280" s="15"/>
-      <c r="L280" s="15"/>
+      <c r="H280" s="14">
+        <v>1</v>
+      </c>
+      <c r="I280" s="14">
+        <v>0</v>
+      </c>
+      <c r="J280" s="14">
+        <v>0</v>
+      </c>
+      <c r="K280" s="14"/>
+      <c r="L280" s="14"/>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
@@ -11285,7 +11293,7 @@
         <v>43231</v>
       </c>
       <c r="D281" s="1">
-        <f t="shared" si="34"/>
+        <f>C281-B281</f>
         <v>80</v>
       </c>
       <c r="E281" s="1" t="s">
@@ -11297,17 +11305,17 @@
       <c r="G281" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H281" s="15">
-        <v>1</v>
-      </c>
-      <c r="I281" s="20">
-        <v>1</v>
-      </c>
-      <c r="J281" s="15">
-        <v>0</v>
-      </c>
-      <c r="K281" s="15"/>
-      <c r="L281" s="15"/>
+      <c r="H281" s="14">
+        <v>1</v>
+      </c>
+      <c r="I281" s="19">
+        <v>1</v>
+      </c>
+      <c r="J281" s="14">
+        <v>0</v>
+      </c>
+      <c r="K281" s="14"/>
+      <c r="L281" s="14"/>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
@@ -11332,17 +11340,17 @@
       <c r="G282" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H282" s="15">
-        <v>0</v>
-      </c>
-      <c r="I282" s="15">
-        <v>0</v>
-      </c>
-      <c r="J282" s="15">
-        <v>0</v>
-      </c>
-      <c r="K282" s="15"/>
-      <c r="L282" s="15"/>
+      <c r="H282" s="14">
+        <v>0</v>
+      </c>
+      <c r="I282" s="14">
+        <v>0</v>
+      </c>
+      <c r="J282" s="14">
+        <v>0</v>
+      </c>
+      <c r="K282" s="14"/>
+      <c r="L282" s="14"/>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
@@ -11355,7 +11363,7 @@
         <v>43234</v>
       </c>
       <c r="D283" s="1">
-        <f t="shared" ref="D283:D288" si="35">C283-B283</f>
+        <f>C283-B283</f>
         <v>83</v>
       </c>
       <c r="E283" s="1" t="s">
@@ -11367,17 +11375,17 @@
       <c r="G283" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H283" s="16">
-        <v>0</v>
-      </c>
-      <c r="I283" s="15">
-        <v>0</v>
-      </c>
-      <c r="J283" s="16">
-        <v>0</v>
-      </c>
-      <c r="K283" s="15"/>
-      <c r="L283" s="15"/>
+      <c r="H283" s="15">
+        <v>0</v>
+      </c>
+      <c r="I283" s="14">
+        <v>0</v>
+      </c>
+      <c r="J283" s="15">
+        <v>0</v>
+      </c>
+      <c r="K283" s="14"/>
+      <c r="L283" s="14"/>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
@@ -11390,7 +11398,7 @@
         <v>43234</v>
       </c>
       <c r="D284" s="1">
-        <f t="shared" si="35"/>
+        <f>C284-B284</f>
         <v>83</v>
       </c>
       <c r="E284" s="3" t="s">
@@ -11402,17 +11410,17 @@
       <c r="G284" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H284" s="15">
-        <v>0</v>
-      </c>
-      <c r="I284" s="15">
-        <v>1</v>
-      </c>
-      <c r="J284" s="15">
-        <v>0</v>
-      </c>
-      <c r="K284" s="15"/>
-      <c r="L284" s="15"/>
+      <c r="H284" s="14">
+        <v>0</v>
+      </c>
+      <c r="I284" s="14">
+        <v>1</v>
+      </c>
+      <c r="J284" s="14">
+        <v>0</v>
+      </c>
+      <c r="K284" s="14"/>
+      <c r="L284" s="14"/>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
@@ -11425,7 +11433,7 @@
         <v>43234</v>
       </c>
       <c r="D285" s="1">
-        <f t="shared" si="35"/>
+        <f>C285-B285</f>
         <v>83</v>
       </c>
       <c r="E285" s="3" t="s">
@@ -11437,17 +11445,17 @@
       <c r="G285" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H285" s="16">
-        <v>0</v>
-      </c>
-      <c r="I285" s="15">
+      <c r="H285" s="15">
+        <v>0</v>
+      </c>
+      <c r="I285" s="14">
         <v>2</v>
       </c>
-      <c r="J285" s="16">
-        <v>0</v>
-      </c>
-      <c r="K285" s="15"/>
-      <c r="L285" s="15"/>
+      <c r="J285" s="15">
+        <v>0</v>
+      </c>
+      <c r="K285" s="14"/>
+      <c r="L285" s="14"/>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
@@ -11460,7 +11468,7 @@
         <v>43234</v>
       </c>
       <c r="D286" s="1">
-        <f t="shared" si="35"/>
+        <f>C286-B286</f>
         <v>83</v>
       </c>
       <c r="E286" s="1" t="s">
@@ -11472,17 +11480,17 @@
       <c r="G286" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H286" s="15">
-        <v>0</v>
-      </c>
-      <c r="I286" s="15">
-        <v>0</v>
-      </c>
-      <c r="J286" s="15">
-        <v>0</v>
-      </c>
-      <c r="K286" s="15"/>
-      <c r="L286" s="15"/>
+      <c r="H286" s="14">
+        <v>0</v>
+      </c>
+      <c r="I286" s="14">
+        <v>0</v>
+      </c>
+      <c r="J286" s="14">
+        <v>0</v>
+      </c>
+      <c r="K286" s="14"/>
+      <c r="L286" s="14"/>
       <c r="M286" t="s">
         <v>32</v>
       </c>
@@ -11498,7 +11506,7 @@
         <v>43234</v>
       </c>
       <c r="D287" s="1">
-        <f t="shared" si="35"/>
+        <f>C287-B287</f>
         <v>83</v>
       </c>
       <c r="E287" s="3" t="s">
@@ -11510,17 +11518,17 @@
       <c r="G287" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H287" s="16">
-        <v>0</v>
-      </c>
-      <c r="I287" s="15">
+      <c r="H287" s="15">
+        <v>0</v>
+      </c>
+      <c r="I287" s="14">
         <v>6</v>
       </c>
-      <c r="J287" s="16">
-        <v>0</v>
-      </c>
-      <c r="K287" s="15"/>
-      <c r="L287" s="15"/>
+      <c r="J287" s="15">
+        <v>0</v>
+      </c>
+      <c r="K287" s="14"/>
+      <c r="L287" s="14"/>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
@@ -11533,7 +11541,7 @@
         <v>43234</v>
       </c>
       <c r="D288" s="1">
-        <f t="shared" si="35"/>
+        <f>C288-B288</f>
         <v>83</v>
       </c>
       <c r="E288" s="1" t="s">
@@ -11545,17 +11553,17 @@
       <c r="G288" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H288" s="15">
-        <v>0</v>
-      </c>
-      <c r="I288" s="20">
-        <v>0</v>
-      </c>
-      <c r="J288" s="15">
-        <v>0</v>
-      </c>
-      <c r="K288" s="15"/>
-      <c r="L288" s="15"/>
+      <c r="H288" s="14">
+        <v>0</v>
+      </c>
+      <c r="I288" s="19">
+        <v>0</v>
+      </c>
+      <c r="J288" s="14">
+        <v>0</v>
+      </c>
+      <c r="K288" s="14"/>
+      <c r="L288" s="14"/>
       <c r="M288" t="s">
         <v>32</v>
       </c>
@@ -11583,17 +11591,17 @@
       <c r="G289" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H289" s="15">
-        <v>0</v>
-      </c>
-      <c r="I289" s="15">
+      <c r="H289" s="14">
+        <v>0</v>
+      </c>
+      <c r="I289" s="14">
         <v>2</v>
       </c>
-      <c r="J289" s="15">
-        <v>0</v>
-      </c>
-      <c r="K289" s="15"/>
-      <c r="L289" s="15"/>
+      <c r="J289" s="14">
+        <v>0</v>
+      </c>
+      <c r="K289" s="14"/>
+      <c r="L289" s="14"/>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
@@ -11606,7 +11614,7 @@
         <v>43236</v>
       </c>
       <c r="D290" s="1">
-        <f t="shared" ref="D290:D295" si="36">C290-B290</f>
+        <f>C290-B290</f>
         <v>85</v>
       </c>
       <c r="E290" s="1" t="s">
@@ -11618,17 +11626,17 @@
       <c r="G290" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H290" s="16">
-        <v>0</v>
-      </c>
-      <c r="I290" s="15">
-        <v>0</v>
-      </c>
-      <c r="J290" s="16">
-        <v>0</v>
-      </c>
-      <c r="K290" s="15"/>
-      <c r="L290" s="15"/>
+      <c r="H290" s="15">
+        <v>0</v>
+      </c>
+      <c r="I290" s="14">
+        <v>0</v>
+      </c>
+      <c r="J290" s="15">
+        <v>0</v>
+      </c>
+      <c r="K290" s="14"/>
+      <c r="L290" s="14"/>
       <c r="M290" t="s">
         <v>31</v>
       </c>
@@ -11644,7 +11652,7 @@
         <v>43236</v>
       </c>
       <c r="D291" s="1">
-        <f t="shared" si="36"/>
+        <f>C291-B291</f>
         <v>85</v>
       </c>
       <c r="E291" s="3" t="s">
@@ -11656,17 +11664,17 @@
       <c r="G291" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H291" s="15">
-        <v>0</v>
-      </c>
-      <c r="I291" s="15">
+      <c r="H291" s="14">
+        <v>0</v>
+      </c>
+      <c r="I291" s="14">
         <v>2</v>
       </c>
-      <c r="J291" s="15">
-        <v>0</v>
-      </c>
-      <c r="K291" s="15"/>
-      <c r="L291" s="15"/>
+      <c r="J291" s="14">
+        <v>0</v>
+      </c>
+      <c r="K291" s="14"/>
+      <c r="L291" s="14"/>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
@@ -11679,7 +11687,7 @@
         <v>43236</v>
       </c>
       <c r="D292" s="1">
-        <f t="shared" si="36"/>
+        <f>C292-B292</f>
         <v>85</v>
       </c>
       <c r="E292" s="3" t="s">
@@ -11691,17 +11699,17 @@
       <c r="G292" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H292" s="16">
-        <v>0</v>
-      </c>
-      <c r="I292" s="15">
+      <c r="H292" s="15">
+        <v>0</v>
+      </c>
+      <c r="I292" s="14">
         <v>2</v>
       </c>
-      <c r="J292" s="16">
-        <v>0</v>
-      </c>
-      <c r="K292" s="15"/>
-      <c r="L292" s="15"/>
+      <c r="J292" s="15">
+        <v>0</v>
+      </c>
+      <c r="K292" s="14"/>
+      <c r="L292" s="14"/>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
@@ -11714,7 +11722,7 @@
         <v>43236</v>
       </c>
       <c r="D293" s="1">
-        <f t="shared" si="36"/>
+        <f>C293-B293</f>
         <v>85</v>
       </c>
       <c r="E293" s="1" t="s">
@@ -11726,17 +11734,17 @@
       <c r="G293" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H293" s="15">
-        <v>0</v>
-      </c>
-      <c r="I293" s="15">
-        <v>1</v>
-      </c>
-      <c r="J293" s="15">
-        <v>0</v>
-      </c>
-      <c r="K293" s="15"/>
-      <c r="L293" s="15"/>
+      <c r="H293" s="14">
+        <v>0</v>
+      </c>
+      <c r="I293" s="14">
+        <v>1</v>
+      </c>
+      <c r="J293" s="14">
+        <v>0</v>
+      </c>
+      <c r="K293" s="14"/>
+      <c r="L293" s="14"/>
       <c r="M293" t="s">
         <v>30</v>
       </c>
@@ -11752,7 +11760,7 @@
         <v>43236</v>
       </c>
       <c r="D294" s="1">
-        <f t="shared" si="36"/>
+        <f>C294-B294</f>
         <v>85</v>
       </c>
       <c r="E294" s="3" t="s">
@@ -11764,17 +11772,17 @@
       <c r="G294" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H294" s="16">
-        <v>0</v>
-      </c>
-      <c r="I294" s="15">
+      <c r="H294" s="15">
+        <v>0</v>
+      </c>
+      <c r="I294" s="14">
         <v>2</v>
       </c>
-      <c r="J294" s="16">
-        <v>0</v>
-      </c>
-      <c r="K294" s="15"/>
-      <c r="L294" s="15"/>
+      <c r="J294" s="15">
+        <v>0</v>
+      </c>
+      <c r="K294" s="14"/>
+      <c r="L294" s="14"/>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
@@ -11787,7 +11795,7 @@
         <v>43236</v>
       </c>
       <c r="D295" s="1">
-        <f t="shared" si="36"/>
+        <f>C295-B295</f>
         <v>85</v>
       </c>
       <c r="E295" s="1" t="s">
@@ -11799,17 +11807,17 @@
       <c r="G295" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H295" s="15">
-        <v>0</v>
-      </c>
-      <c r="I295" s="20">
-        <v>0</v>
-      </c>
-      <c r="J295" s="15">
-        <v>0</v>
-      </c>
-      <c r="K295" s="15"/>
-      <c r="L295" s="15"/>
+      <c r="H295" s="14">
+        <v>0</v>
+      </c>
+      <c r="I295" s="19">
+        <v>0</v>
+      </c>
+      <c r="J295" s="14">
+        <v>0</v>
+      </c>
+      <c r="K295" s="14"/>
+      <c r="L295" s="14"/>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
@@ -11834,17 +11842,17 @@
       <c r="G296" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H296" s="20">
-        <v>0</v>
-      </c>
-      <c r="I296" s="20">
+      <c r="H296" s="19">
+        <v>0</v>
+      </c>
+      <c r="I296" s="19">
         <v>2</v>
       </c>
-      <c r="J296" s="20">
-        <v>0</v>
-      </c>
-      <c r="K296" s="21"/>
-      <c r="L296" s="15"/>
+      <c r="J296" s="19">
+        <v>0</v>
+      </c>
+      <c r="K296" s="20"/>
+      <c r="L296" s="14"/>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
@@ -11857,7 +11865,7 @@
         <v>43238</v>
       </c>
       <c r="D297" s="1">
-        <f t="shared" ref="D297:D301" si="37">C297-B297</f>
+        <f>C297-B297</f>
         <v>87</v>
       </c>
       <c r="E297" s="1" t="s">
@@ -11869,17 +11877,17 @@
       <c r="G297" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H297" s="22">
-        <v>1</v>
-      </c>
-      <c r="I297" s="20">
-        <v>0</v>
-      </c>
-      <c r="J297" s="22">
-        <v>0</v>
-      </c>
-      <c r="K297" s="15"/>
-      <c r="L297" s="15"/>
+      <c r="H297" s="21">
+        <v>1</v>
+      </c>
+      <c r="I297" s="19">
+        <v>0</v>
+      </c>
+      <c r="J297" s="21">
+        <v>0</v>
+      </c>
+      <c r="K297" s="14"/>
+      <c r="L297" s="14"/>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
@@ -11892,7 +11900,7 @@
         <v>43238</v>
       </c>
       <c r="D298" s="1">
-        <f t="shared" si="37"/>
+        <f>C298-B298</f>
         <v>87</v>
       </c>
       <c r="E298" s="3" t="s">
@@ -11904,17 +11912,17 @@
       <c r="G298" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H298" s="20">
-        <v>0</v>
-      </c>
-      <c r="I298" s="20">
-        <v>0</v>
-      </c>
-      <c r="J298" s="20">
-        <v>0</v>
-      </c>
-      <c r="K298" s="15"/>
-      <c r="L298" s="15"/>
+      <c r="H298" s="19">
+        <v>0</v>
+      </c>
+      <c r="I298" s="19">
+        <v>0</v>
+      </c>
+      <c r="J298" s="19">
+        <v>0</v>
+      </c>
+      <c r="K298" s="14"/>
+      <c r="L298" s="14"/>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
@@ -11927,7 +11935,7 @@
         <v>43238</v>
       </c>
       <c r="D299" s="1">
-        <f t="shared" si="37"/>
+        <f>C299-B299</f>
         <v>87</v>
       </c>
       <c r="E299" s="3" t="s">
@@ -11939,17 +11947,17 @@
       <c r="G299" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H299" s="22">
-        <v>0</v>
-      </c>
-      <c r="I299" s="20">
-        <v>1</v>
-      </c>
-      <c r="J299" s="22">
-        <v>0</v>
-      </c>
-      <c r="K299" s="15"/>
-      <c r="L299" s="15"/>
+      <c r="H299" s="21">
+        <v>0</v>
+      </c>
+      <c r="I299" s="19">
+        <v>1</v>
+      </c>
+      <c r="J299" s="21">
+        <v>0</v>
+      </c>
+      <c r="K299" s="14"/>
+      <c r="L299" s="14"/>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
@@ -11962,7 +11970,7 @@
         <v>43238</v>
       </c>
       <c r="D300" s="1">
-        <f t="shared" si="37"/>
+        <f>C300-B300</f>
         <v>87</v>
       </c>
       <c r="E300" s="3" t="s">
@@ -11974,17 +11982,17 @@
       <c r="G300" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H300" s="22">
-        <v>0</v>
-      </c>
-      <c r="I300" s="20">
+      <c r="H300" s="21">
+        <v>0</v>
+      </c>
+      <c r="I300" s="19">
         <v>2</v>
       </c>
-      <c r="J300" s="22">
-        <v>0</v>
-      </c>
-      <c r="K300" s="15"/>
-      <c r="L300" s="15"/>
+      <c r="J300" s="21">
+        <v>0</v>
+      </c>
+      <c r="K300" s="14"/>
+      <c r="L300" s="14"/>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
@@ -11997,7 +12005,7 @@
         <v>43238</v>
       </c>
       <c r="D301" s="1">
-        <f t="shared" si="37"/>
+        <f>C301-B301</f>
         <v>87</v>
       </c>
       <c r="E301" s="1" t="s">
@@ -12009,17 +12017,17 @@
       <c r="G301" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H301" s="20">
-        <v>0</v>
-      </c>
-      <c r="I301" s="20">
-        <v>0</v>
-      </c>
-      <c r="J301" s="20">
-        <v>0</v>
-      </c>
-      <c r="K301" s="15"/>
-      <c r="L301" s="15"/>
+      <c r="H301" s="19">
+        <v>0</v>
+      </c>
+      <c r="I301" s="19">
+        <v>0</v>
+      </c>
+      <c r="J301" s="19">
+        <v>0</v>
+      </c>
+      <c r="K301" s="14"/>
+      <c r="L301" s="14"/>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
@@ -12044,17 +12052,17 @@
       <c r="G302" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H302" s="20">
-        <v>0</v>
-      </c>
-      <c r="I302" s="20">
+      <c r="H302" s="19">
+        <v>0</v>
+      </c>
+      <c r="I302" s="19">
         <v>4</v>
       </c>
-      <c r="J302" s="20">
-        <v>0</v>
-      </c>
-      <c r="K302" s="21"/>
-      <c r="L302" s="15"/>
+      <c r="J302" s="19">
+        <v>0</v>
+      </c>
+      <c r="K302" s="20"/>
+      <c r="L302" s="14"/>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
@@ -12067,7 +12075,7 @@
         <v>43241</v>
       </c>
       <c r="D303" s="1">
-        <f t="shared" ref="D303:D307" si="38">C303-B303</f>
+        <f>C303-B303</f>
         <v>90</v>
       </c>
       <c r="E303" s="1" t="s">
@@ -12079,17 +12087,17 @@
       <c r="G303" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H303" s="20">
-        <v>0</v>
-      </c>
-      <c r="I303" s="20">
-        <v>0</v>
-      </c>
-      <c r="J303" s="20">
-        <v>0</v>
-      </c>
-      <c r="K303" s="15"/>
-      <c r="L303" s="15"/>
+      <c r="H303" s="19">
+        <v>0</v>
+      </c>
+      <c r="I303" s="19">
+        <v>0</v>
+      </c>
+      <c r="J303" s="19">
+        <v>0</v>
+      </c>
+      <c r="K303" s="14"/>
+      <c r="L303" s="14"/>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
@@ -12102,7 +12110,7 @@
         <v>43241</v>
       </c>
       <c r="D304" s="1">
-        <f t="shared" si="38"/>
+        <f>C304-B304</f>
         <v>90</v>
       </c>
       <c r="E304" s="3" t="s">
@@ -12114,17 +12122,17 @@
       <c r="G304" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H304" s="20">
-        <v>0</v>
-      </c>
-      <c r="I304" s="20">
+      <c r="H304" s="19">
+        <v>0</v>
+      </c>
+      <c r="I304" s="19">
         <v>4</v>
       </c>
-      <c r="J304" s="20">
-        <v>0</v>
-      </c>
-      <c r="K304" s="15"/>
-      <c r="L304" s="15"/>
+      <c r="J304" s="19">
+        <v>0</v>
+      </c>
+      <c r="K304" s="14"/>
+      <c r="L304" s="14"/>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
@@ -12137,7 +12145,7 @@
         <v>43241</v>
       </c>
       <c r="D305" s="1">
-        <f t="shared" si="38"/>
+        <f>C305-B305</f>
         <v>90</v>
       </c>
       <c r="E305" s="3" t="s">
@@ -12149,17 +12157,17 @@
       <c r="G305" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H305" s="20">
-        <v>0</v>
-      </c>
-      <c r="I305" s="20">
-        <v>1</v>
-      </c>
-      <c r="J305" s="20">
-        <v>0</v>
-      </c>
-      <c r="K305" s="15"/>
-      <c r="L305" s="15"/>
+      <c r="H305" s="19">
+        <v>0</v>
+      </c>
+      <c r="I305" s="19">
+        <v>1</v>
+      </c>
+      <c r="J305" s="19">
+        <v>0</v>
+      </c>
+      <c r="K305" s="14"/>
+      <c r="L305" s="14"/>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
@@ -12172,7 +12180,7 @@
         <v>43241</v>
       </c>
       <c r="D306" s="1">
-        <f t="shared" si="38"/>
+        <f>C306-B306</f>
         <v>90</v>
       </c>
       <c r="E306" s="3" t="s">
@@ -12184,17 +12192,17 @@
       <c r="G306" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H306" s="20">
-        <v>0</v>
-      </c>
-      <c r="I306" s="20">
+      <c r="H306" s="19">
+        <v>0</v>
+      </c>
+      <c r="I306" s="19">
         <v>5</v>
       </c>
-      <c r="J306" s="20">
-        <v>0</v>
-      </c>
-      <c r="K306" s="15"/>
-      <c r="L306" s="15"/>
+      <c r="J306" s="19">
+        <v>0</v>
+      </c>
+      <c r="K306" s="14"/>
+      <c r="L306" s="14"/>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
@@ -12207,7 +12215,7 @@
         <v>43241</v>
       </c>
       <c r="D307" s="1">
-        <f t="shared" si="38"/>
+        <f>C307-B307</f>
         <v>90</v>
       </c>
       <c r="E307" s="1" t="s">
@@ -12219,17 +12227,17 @@
       <c r="G307" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H307" s="20">
-        <v>0</v>
-      </c>
-      <c r="I307" s="20">
-        <v>0</v>
-      </c>
-      <c r="J307" s="20">
-        <v>0</v>
-      </c>
-      <c r="K307" s="15"/>
-      <c r="L307" s="15"/>
+      <c r="H307" s="19">
+        <v>0</v>
+      </c>
+      <c r="I307" s="19">
+        <v>0</v>
+      </c>
+      <c r="J307" s="19">
+        <v>0</v>
+      </c>
+      <c r="K307" s="14"/>
+      <c r="L307" s="14"/>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
@@ -12254,17 +12262,17 @@
       <c r="G308" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H308" s="20">
-        <v>0</v>
-      </c>
-      <c r="I308" s="20">
-        <v>0</v>
-      </c>
-      <c r="J308" s="20">
-        <v>0</v>
-      </c>
-      <c r="K308" s="21"/>
-      <c r="L308" s="15"/>
+      <c r="H308" s="19">
+        <v>0</v>
+      </c>
+      <c r="I308" s="19">
+        <v>0</v>
+      </c>
+      <c r="J308" s="19">
+        <v>0</v>
+      </c>
+      <c r="K308" s="20"/>
+      <c r="L308" s="14"/>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
@@ -12277,7 +12285,7 @@
         <v>43243</v>
       </c>
       <c r="D309" s="1">
-        <f t="shared" ref="D309:D313" si="39">C309-B309</f>
+        <f>C309-B309</f>
         <v>92</v>
       </c>
       <c r="E309" s="1" t="s">
@@ -12289,17 +12297,17 @@
       <c r="G309" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H309" s="20">
-        <v>0</v>
-      </c>
-      <c r="I309" s="20">
-        <v>0</v>
-      </c>
-      <c r="J309" s="20">
-        <v>0</v>
-      </c>
-      <c r="K309" s="15"/>
-      <c r="L309" s="15"/>
+      <c r="H309" s="19">
+        <v>0</v>
+      </c>
+      <c r="I309" s="19">
+        <v>0</v>
+      </c>
+      <c r="J309" s="19">
+        <v>0</v>
+      </c>
+      <c r="K309" s="14"/>
+      <c r="L309" s="14"/>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
@@ -12312,7 +12320,7 @@
         <v>43243</v>
       </c>
       <c r="D310" s="1">
-        <f t="shared" si="39"/>
+        <f>C310-B310</f>
         <v>92</v>
       </c>
       <c r="E310" s="3" t="s">
@@ -12324,17 +12332,17 @@
       <c r="G310" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H310" s="20">
-        <v>0</v>
-      </c>
-      <c r="I310" s="20">
-        <v>1</v>
-      </c>
-      <c r="J310" s="20">
-        <v>0</v>
-      </c>
-      <c r="K310" s="15"/>
-      <c r="L310" s="15"/>
+      <c r="H310" s="19">
+        <v>0</v>
+      </c>
+      <c r="I310" s="19">
+        <v>1</v>
+      </c>
+      <c r="J310" s="19">
+        <v>0</v>
+      </c>
+      <c r="K310" s="14"/>
+      <c r="L310" s="14"/>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
@@ -12347,7 +12355,7 @@
         <v>43243</v>
       </c>
       <c r="D311" s="1">
-        <f t="shared" si="39"/>
+        <f>C311-B311</f>
         <v>92</v>
       </c>
       <c r="E311" s="3" t="s">
@@ -12359,17 +12367,17 @@
       <c r="G311" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H311" s="20">
-        <v>0</v>
-      </c>
-      <c r="I311" s="20">
-        <v>0</v>
-      </c>
-      <c r="J311" s="20">
-        <v>0</v>
-      </c>
-      <c r="K311" s="15"/>
-      <c r="L311" s="15"/>
+      <c r="H311" s="19">
+        <v>0</v>
+      </c>
+      <c r="I311" s="19">
+        <v>0</v>
+      </c>
+      <c r="J311" s="19">
+        <v>0</v>
+      </c>
+      <c r="K311" s="14"/>
+      <c r="L311" s="14"/>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
@@ -12382,7 +12390,7 @@
         <v>43243</v>
       </c>
       <c r="D312" s="1">
-        <f t="shared" si="39"/>
+        <f>C312-B312</f>
         <v>92</v>
       </c>
       <c r="E312" s="3" t="s">
@@ -12394,17 +12402,17 @@
       <c r="G312" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H312" s="20">
-        <v>0</v>
-      </c>
-      <c r="I312" s="20">
-        <v>0</v>
-      </c>
-      <c r="J312" s="20">
-        <v>0</v>
-      </c>
-      <c r="K312" s="15"/>
-      <c r="L312" s="15"/>
+      <c r="H312" s="19">
+        <v>0</v>
+      </c>
+      <c r="I312" s="19">
+        <v>0</v>
+      </c>
+      <c r="J312" s="19">
+        <v>0</v>
+      </c>
+      <c r="K312" s="14"/>
+      <c r="L312" s="14"/>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
@@ -12417,7 +12425,7 @@
         <v>43243</v>
       </c>
       <c r="D313" s="1">
-        <f t="shared" si="39"/>
+        <f>C313-B313</f>
         <v>92</v>
       </c>
       <c r="E313" s="1" t="s">
@@ -12429,17 +12437,17 @@
       <c r="G313" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H313" s="20">
-        <v>0</v>
-      </c>
-      <c r="I313" s="20">
-        <v>0</v>
-      </c>
-      <c r="J313" s="20">
-        <v>0</v>
-      </c>
-      <c r="K313" s="15"/>
-      <c r="L313" s="15"/>
+      <c r="H313" s="19">
+        <v>0</v>
+      </c>
+      <c r="I313" s="19">
+        <v>0</v>
+      </c>
+      <c r="J313" s="19">
+        <v>0</v>
+      </c>
+      <c r="K313" s="14"/>
+      <c r="L313" s="14"/>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
@@ -12464,17 +12472,17 @@
       <c r="G314" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H314" s="20">
-        <v>0</v>
-      </c>
-      <c r="I314" s="20">
-        <v>1</v>
-      </c>
-      <c r="J314" s="20">
-        <v>0</v>
-      </c>
-      <c r="K314" s="21"/>
-      <c r="L314" s="15"/>
+      <c r="H314" s="19">
+        <v>0</v>
+      </c>
+      <c r="I314" s="19">
+        <v>1</v>
+      </c>
+      <c r="J314" s="19">
+        <v>0</v>
+      </c>
+      <c r="K314" s="20"/>
+      <c r="L314" s="14"/>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
@@ -12487,7 +12495,7 @@
         <v>43245</v>
       </c>
       <c r="D315" s="1">
-        <f t="shared" ref="D315:D319" si="40">C315-B315</f>
+        <f>C315-B315</f>
         <v>94</v>
       </c>
       <c r="E315" s="1" t="s">
@@ -12499,17 +12507,17 @@
       <c r="G315" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H315" s="20">
-        <v>0</v>
-      </c>
-      <c r="I315" s="20">
-        <v>0</v>
-      </c>
-      <c r="J315" s="20">
-        <v>0</v>
-      </c>
-      <c r="K315" s="15"/>
-      <c r="L315" s="15"/>
+      <c r="H315" s="19">
+        <v>0</v>
+      </c>
+      <c r="I315" s="19">
+        <v>0</v>
+      </c>
+      <c r="J315" s="19">
+        <v>0</v>
+      </c>
+      <c r="K315" s="14"/>
+      <c r="L315" s="14"/>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
@@ -12522,7 +12530,7 @@
         <v>43245</v>
       </c>
       <c r="D316" s="1">
-        <f t="shared" si="40"/>
+        <f>C316-B316</f>
         <v>94</v>
       </c>
       <c r="E316" s="3" t="s">
@@ -12534,17 +12542,17 @@
       <c r="G316" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H316" s="20">
-        <v>0</v>
-      </c>
-      <c r="I316" s="20">
-        <v>1</v>
-      </c>
-      <c r="J316" s="20">
-        <v>0</v>
-      </c>
-      <c r="K316" s="15"/>
-      <c r="L316" s="15"/>
+      <c r="H316" s="19">
+        <v>0</v>
+      </c>
+      <c r="I316" s="19">
+        <v>1</v>
+      </c>
+      <c r="J316" s="19">
+        <v>0</v>
+      </c>
+      <c r="K316" s="14"/>
+      <c r="L316" s="14"/>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
@@ -12557,7 +12565,7 @@
         <v>43245</v>
       </c>
       <c r="D317" s="1">
-        <f t="shared" si="40"/>
+        <f>C317-B317</f>
         <v>94</v>
       </c>
       <c r="E317" s="3" t="s">
@@ -12569,17 +12577,17 @@
       <c r="G317" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H317" s="20">
-        <v>0</v>
-      </c>
-      <c r="I317" s="20">
-        <v>0</v>
-      </c>
-      <c r="J317" s="20">
-        <v>0</v>
-      </c>
-      <c r="K317" s="15"/>
-      <c r="L317" s="15"/>
+      <c r="H317" s="19">
+        <v>0</v>
+      </c>
+      <c r="I317" s="19">
+        <v>0</v>
+      </c>
+      <c r="J317" s="19">
+        <v>0</v>
+      </c>
+      <c r="K317" s="14"/>
+      <c r="L317" s="14"/>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
@@ -12592,7 +12600,7 @@
         <v>43245</v>
       </c>
       <c r="D318" s="1">
-        <f t="shared" si="40"/>
+        <f>C318-B318</f>
         <v>94</v>
       </c>
       <c r="E318" s="3" t="s">
@@ -12604,17 +12612,17 @@
       <c r="G318" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H318" s="20">
-        <v>0</v>
-      </c>
-      <c r="I318" s="20">
-        <v>0</v>
-      </c>
-      <c r="J318" s="20">
-        <v>0</v>
-      </c>
-      <c r="K318" s="15"/>
-      <c r="L318" s="15"/>
+      <c r="H318" s="19">
+        <v>0</v>
+      </c>
+      <c r="I318" s="19">
+        <v>0</v>
+      </c>
+      <c r="J318" s="19">
+        <v>0</v>
+      </c>
+      <c r="K318" s="14"/>
+      <c r="L318" s="14"/>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
@@ -12627,7 +12635,7 @@
         <v>43245</v>
       </c>
       <c r="D319" s="1">
-        <f t="shared" si="40"/>
+        <f>C319-B319</f>
         <v>94</v>
       </c>
       <c r="E319" s="1" t="s">
@@ -12639,17 +12647,17 @@
       <c r="G319" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H319" s="20">
-        <v>0</v>
-      </c>
-      <c r="I319" s="20">
-        <v>0</v>
-      </c>
-      <c r="J319" s="20">
-        <v>0</v>
-      </c>
-      <c r="K319" s="15"/>
-      <c r="L319" s="15"/>
+      <c r="H319" s="19">
+        <v>0</v>
+      </c>
+      <c r="I319" s="19">
+        <v>0</v>
+      </c>
+      <c r="J319" s="19">
+        <v>0</v>
+      </c>
+      <c r="K319" s="14"/>
+      <c r="L319" s="14"/>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
@@ -12674,17 +12682,17 @@
       <c r="G320" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H320" s="20">
-        <v>0</v>
-      </c>
-      <c r="I320" s="20">
+      <c r="H320" s="19">
+        <v>0</v>
+      </c>
+      <c r="I320" s="19">
         <v>2</v>
       </c>
-      <c r="J320" s="20">
-        <v>0</v>
-      </c>
-      <c r="K320" s="21"/>
-      <c r="L320" s="15"/>
+      <c r="J320" s="19">
+        <v>0</v>
+      </c>
+      <c r="K320" s="20"/>
+      <c r="L320" s="14"/>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
@@ -12697,7 +12705,7 @@
         <v>43248</v>
       </c>
       <c r="D321" s="1">
-        <f t="shared" ref="D321:D325" si="41">C321-B321</f>
+        <f>C321-B321</f>
         <v>97</v>
       </c>
       <c r="E321" s="1" t="s">
@@ -12709,17 +12717,17 @@
       <c r="G321" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H321" s="20">
-        <v>0</v>
-      </c>
-      <c r="I321" s="20">
-        <v>1</v>
-      </c>
-      <c r="J321" s="20">
-        <v>0</v>
-      </c>
-      <c r="K321" s="15"/>
-      <c r="L321" s="15"/>
+      <c r="H321" s="19">
+        <v>0</v>
+      </c>
+      <c r="I321" s="19">
+        <v>1</v>
+      </c>
+      <c r="J321" s="19">
+        <v>0</v>
+      </c>
+      <c r="K321" s="14"/>
+      <c r="L321" s="14"/>
       <c r="M321" t="s">
         <v>30</v>
       </c>
@@ -12735,7 +12743,7 @@
         <v>43248</v>
       </c>
       <c r="D322" s="1">
-        <f t="shared" si="41"/>
+        <f>C322-B322</f>
         <v>97</v>
       </c>
       <c r="E322" s="3" t="s">
@@ -12747,17 +12755,17 @@
       <c r="G322" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H322" s="20">
-        <v>0</v>
-      </c>
-      <c r="I322" s="20">
+      <c r="H322" s="19">
+        <v>0</v>
+      </c>
+      <c r="I322" s="19">
         <v>3</v>
       </c>
-      <c r="J322" s="20">
-        <v>0</v>
-      </c>
-      <c r="K322" s="15"/>
-      <c r="L322" s="15"/>
+      <c r="J322" s="19">
+        <v>0</v>
+      </c>
+      <c r="K322" s="14"/>
+      <c r="L322" s="14"/>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
@@ -12770,7 +12778,7 @@
         <v>43248</v>
       </c>
       <c r="D323" s="1">
-        <f t="shared" si="41"/>
+        <f>C323-B323</f>
         <v>97</v>
       </c>
       <c r="E323" s="3" t="s">
@@ -12782,17 +12790,17 @@
       <c r="G323" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H323" s="20">
-        <v>0</v>
-      </c>
-      <c r="I323" s="20">
+      <c r="H323" s="19">
+        <v>0</v>
+      </c>
+      <c r="I323" s="19">
         <v>2</v>
       </c>
-      <c r="J323" s="20">
-        <v>0</v>
-      </c>
-      <c r="K323" s="15"/>
-      <c r="L323" s="15"/>
+      <c r="J323" s="19">
+        <v>0</v>
+      </c>
+      <c r="K323" s="14"/>
+      <c r="L323" s="14"/>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
@@ -12805,7 +12813,7 @@
         <v>43248</v>
       </c>
       <c r="D324" s="1">
-        <f t="shared" si="41"/>
+        <f>C324-B324</f>
         <v>97</v>
       </c>
       <c r="E324" s="3" t="s">
@@ -12817,17 +12825,17 @@
       <c r="G324" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H324" s="20">
-        <v>0</v>
-      </c>
-      <c r="I324" s="20">
+      <c r="H324" s="19">
+        <v>0</v>
+      </c>
+      <c r="I324" s="19">
         <v>5</v>
       </c>
-      <c r="J324" s="20">
-        <v>0</v>
-      </c>
-      <c r="K324" s="15"/>
-      <c r="L324" s="15"/>
+      <c r="J324" s="19">
+        <v>0</v>
+      </c>
+      <c r="K324" s="14"/>
+      <c r="L324" s="14"/>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
@@ -12840,7 +12848,7 @@
         <v>43248</v>
       </c>
       <c r="D325" s="1">
-        <f t="shared" si="41"/>
+        <f>C325-B325</f>
         <v>97</v>
       </c>
       <c r="E325" s="1" t="s">
@@ -12852,17 +12860,17 @@
       <c r="G325" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H325" s="20">
-        <v>0</v>
-      </c>
-      <c r="I325" s="20">
-        <v>0</v>
-      </c>
-      <c r="J325" s="20">
-        <v>0</v>
-      </c>
-      <c r="K325" s="15"/>
-      <c r="L325" s="15"/>
+      <c r="H325" s="19">
+        <v>0</v>
+      </c>
+      <c r="I325" s="19">
+        <v>0</v>
+      </c>
+      <c r="J325" s="19">
+        <v>0</v>
+      </c>
+      <c r="K325" s="14"/>
+      <c r="L325" s="14"/>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
@@ -12887,17 +12895,17 @@
       <c r="G326" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H326" s="20">
-        <v>0</v>
-      </c>
-      <c r="I326" s="20">
+      <c r="H326" s="19">
+        <v>0</v>
+      </c>
+      <c r="I326" s="19">
         <v>2</v>
       </c>
-      <c r="J326" s="20">
-        <v>0</v>
-      </c>
-      <c r="K326" s="21"/>
-      <c r="L326" s="15"/>
+      <c r="J326" s="19">
+        <v>0</v>
+      </c>
+      <c r="K326" s="20"/>
+      <c r="L326" s="14"/>
       <c r="M326" t="s">
         <v>30</v>
       </c>
@@ -12913,7 +12921,7 @@
         <v>43250</v>
       </c>
       <c r="D327" s="1">
-        <f t="shared" ref="D327:D330" si="42">C327-B327</f>
+        <f>C327-B327</f>
         <v>99</v>
       </c>
       <c r="E327" s="3" t="s">
@@ -12925,17 +12933,17 @@
       <c r="G327" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H327" s="20">
-        <v>0</v>
-      </c>
-      <c r="I327" s="20">
-        <v>0</v>
-      </c>
-      <c r="J327" s="20">
-        <v>0</v>
-      </c>
-      <c r="K327" s="15"/>
-      <c r="L327" s="15"/>
+      <c r="H327" s="19">
+        <v>0</v>
+      </c>
+      <c r="I327" s="19">
+        <v>0</v>
+      </c>
+      <c r="J327" s="19">
+        <v>0</v>
+      </c>
+      <c r="K327" s="14"/>
+      <c r="L327" s="14"/>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
@@ -12948,7 +12956,7 @@
         <v>43250</v>
       </c>
       <c r="D328" s="1">
-        <f t="shared" si="42"/>
+        <f>C328-B328</f>
         <v>99</v>
       </c>
       <c r="E328" s="3" t="s">
@@ -12960,17 +12968,17 @@
       <c r="G328" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H328" s="20">
-        <v>0</v>
-      </c>
-      <c r="I328" s="20">
+      <c r="H328" s="19">
+        <v>0</v>
+      </c>
+      <c r="I328" s="19">
         <v>2</v>
       </c>
-      <c r="J328" s="20">
-        <v>0</v>
-      </c>
-      <c r="K328" s="15"/>
-      <c r="L328" s="15"/>
+      <c r="J328" s="19">
+        <v>0</v>
+      </c>
+      <c r="K328" s="14"/>
+      <c r="L328" s="14"/>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
@@ -12983,7 +12991,7 @@
         <v>43250</v>
       </c>
       <c r="D329" s="1">
-        <f t="shared" si="42"/>
+        <f>C329-B329</f>
         <v>99</v>
       </c>
       <c r="E329" s="3" t="s">
@@ -12995,17 +13003,17 @@
       <c r="G329" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H329" s="20">
-        <v>0</v>
-      </c>
-      <c r="I329" s="20">
-        <v>0</v>
-      </c>
-      <c r="J329" s="20">
-        <v>0</v>
-      </c>
-      <c r="K329" s="15"/>
-      <c r="L329" s="15"/>
+      <c r="H329" s="19">
+        <v>0</v>
+      </c>
+      <c r="I329" s="19">
+        <v>0</v>
+      </c>
+      <c r="J329" s="19">
+        <v>0</v>
+      </c>
+      <c r="K329" s="14"/>
+      <c r="L329" s="14"/>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
@@ -13018,7 +13026,7 @@
         <v>43250</v>
       </c>
       <c r="D330" s="1">
-        <f t="shared" si="42"/>
+        <f>C330-B330</f>
         <v>99</v>
       </c>
       <c r="E330" s="1" t="s">
@@ -13030,17 +13038,17 @@
       <c r="G330" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H330" s="20">
-        <v>0</v>
-      </c>
-      <c r="I330" s="20">
-        <v>0</v>
-      </c>
-      <c r="J330" s="20">
-        <v>0</v>
-      </c>
-      <c r="K330" s="15"/>
-      <c r="L330" s="15"/>
+      <c r="H330" s="19">
+        <v>0</v>
+      </c>
+      <c r="I330" s="19">
+        <v>0</v>
+      </c>
+      <c r="J330" s="19">
+        <v>0</v>
+      </c>
+      <c r="K330" s="14"/>
+      <c r="L330" s="14"/>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
@@ -13053,7 +13061,7 @@
         <v>43252</v>
       </c>
       <c r="D331" s="1">
-        <f t="shared" ref="D331:D334" si="43">C331-B331</f>
+        <f>C331-B331</f>
         <v>101</v>
       </c>
       <c r="E331" s="3" t="s">
@@ -13065,17 +13073,17 @@
       <c r="G331" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H331" s="20">
-        <v>0</v>
-      </c>
-      <c r="I331" s="20">
-        <v>0</v>
-      </c>
-      <c r="J331" s="20">
-        <v>0</v>
-      </c>
-      <c r="K331" s="15"/>
-      <c r="L331" s="15"/>
+      <c r="H331" s="19">
+        <v>0</v>
+      </c>
+      <c r="I331" s="19">
+        <v>0</v>
+      </c>
+      <c r="J331" s="19">
+        <v>0</v>
+      </c>
+      <c r="K331" s="14"/>
+      <c r="L331" s="14"/>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
@@ -13088,7 +13096,7 @@
         <v>43252</v>
       </c>
       <c r="D332" s="1">
-        <f t="shared" si="43"/>
+        <f>C332-B332</f>
         <v>101</v>
       </c>
       <c r="E332" s="3" t="s">
@@ -13100,17 +13108,17 @@
       <c r="G332" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H332" s="20">
-        <v>0</v>
-      </c>
-      <c r="I332" s="20">
-        <v>1</v>
-      </c>
-      <c r="J332" s="20">
-        <v>0</v>
-      </c>
-      <c r="K332" s="15"/>
-      <c r="L332" s="15"/>
+      <c r="H332" s="19">
+        <v>0</v>
+      </c>
+      <c r="I332" s="19">
+        <v>1</v>
+      </c>
+      <c r="J332" s="19">
+        <v>0</v>
+      </c>
+      <c r="K332" s="14"/>
+      <c r="L332" s="14"/>
       <c r="M332" t="s">
         <v>30</v>
       </c>
@@ -13126,7 +13134,7 @@
         <v>43252</v>
       </c>
       <c r="D333" s="1">
-        <f t="shared" si="43"/>
+        <f>C333-B333</f>
         <v>101</v>
       </c>
       <c r="E333" s="3" t="s">
@@ -13138,17 +13146,17 @@
       <c r="G333" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H333" s="20">
-        <v>0</v>
-      </c>
-      <c r="I333" s="20">
-        <v>0</v>
-      </c>
-      <c r="J333" s="20">
-        <v>0</v>
-      </c>
-      <c r="K333" s="15"/>
-      <c r="L333" s="15"/>
+      <c r="H333" s="19">
+        <v>0</v>
+      </c>
+      <c r="I333" s="19">
+        <v>0</v>
+      </c>
+      <c r="J333" s="19">
+        <v>0</v>
+      </c>
+      <c r="K333" s="14"/>
+      <c r="L333" s="14"/>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
@@ -13161,7 +13169,7 @@
         <v>43252</v>
       </c>
       <c r="D334" s="1">
-        <f t="shared" si="43"/>
+        <f>C334-B334</f>
         <v>101</v>
       </c>
       <c r="E334" s="1" t="s">
@@ -13173,17 +13181,17 @@
       <c r="G334" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H334" s="20">
-        <v>0</v>
-      </c>
-      <c r="I334" s="20">
-        <v>0</v>
-      </c>
-      <c r="J334" s="20">
-        <v>0</v>
-      </c>
-      <c r="K334" s="15"/>
-      <c r="L334" s="15"/>
+      <c r="H334" s="19">
+        <v>0</v>
+      </c>
+      <c r="I334" s="19">
+        <v>0</v>
+      </c>
+      <c r="J334" s="19">
+        <v>0</v>
+      </c>
+      <c r="K334" s="14"/>
+      <c r="L334" s="14"/>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
@@ -13196,7 +13204,7 @@
         <v>43255</v>
       </c>
       <c r="D335" s="1">
-        <f t="shared" ref="D335:D337" si="44">C335-B335</f>
+        <f>C335-B335</f>
         <v>104</v>
       </c>
       <c r="E335" s="3" t="s">
@@ -13208,18 +13216,18 @@
       <c r="G335" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H335" s="20">
-        <v>0</v>
-      </c>
-      <c r="I335" s="20">
-        <v>0</v>
-      </c>
-      <c r="J335" s="20">
-        <v>0</v>
-      </c>
-      <c r="K335" s="15"/>
-      <c r="L335" s="15"/>
-      <c r="M335" t="s">
+      <c r="H335" s="19">
+        <v>0</v>
+      </c>
+      <c r="I335" s="19">
+        <v>0</v>
+      </c>
+      <c r="J335" s="19">
+        <v>0</v>
+      </c>
+      <c r="K335" s="14"/>
+      <c r="L335" s="14"/>
+      <c r="M335" s="28" t="s">
         <v>34</v>
       </c>
     </row>
@@ -13234,7 +13242,7 @@
         <v>43255</v>
       </c>
       <c r="D336" s="1">
-        <f t="shared" si="44"/>
+        <f>C336-B336</f>
         <v>104</v>
       </c>
       <c r="E336" s="3" t="s">
@@ -13246,17 +13254,17 @@
       <c r="G336" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H336" s="20">
-        <v>0</v>
-      </c>
-      <c r="I336" s="20">
-        <v>1</v>
-      </c>
-      <c r="J336" s="20">
-        <v>0</v>
-      </c>
-      <c r="K336" s="15"/>
-      <c r="L336" s="15"/>
+      <c r="H336" s="19">
+        <v>0</v>
+      </c>
+      <c r="I336" s="19">
+        <v>1</v>
+      </c>
+      <c r="J336" s="19">
+        <v>0</v>
+      </c>
+      <c r="K336" s="14"/>
+      <c r="L336" s="14"/>
       <c r="M336" t="s">
         <v>35</v>
       </c>
@@ -13272,7 +13280,7 @@
         <v>43255</v>
       </c>
       <c r="D337" s="1">
-        <f t="shared" si="44"/>
+        <f>C337-B337</f>
         <v>104</v>
       </c>
       <c r="E337" s="1" t="s">
@@ -13284,17 +13292,17 @@
       <c r="G337" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H337" s="20">
-        <v>0</v>
-      </c>
-      <c r="I337" s="20">
-        <v>0</v>
-      </c>
-      <c r="J337" s="20">
-        <v>0</v>
-      </c>
-      <c r="K337" s="15"/>
-      <c r="L337" s="15"/>
+      <c r="H337" s="19">
+        <v>0</v>
+      </c>
+      <c r="I337" s="19">
+        <v>0</v>
+      </c>
+      <c r="J337" s="19">
+        <v>0</v>
+      </c>
+      <c r="K337" s="14"/>
+      <c r="L337" s="14"/>
       <c r="M337" t="s">
         <v>36</v>
       </c>
@@ -13310,7 +13318,7 @@
         <v>43257</v>
       </c>
       <c r="D338" s="1">
-        <f t="shared" ref="D338:D340" si="45">C338-B338</f>
+        <f>C338-B338</f>
         <v>106</v>
       </c>
       <c r="E338" s="3" t="s">
@@ -13322,17 +13330,18 @@
       <c r="G338" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H338" s="20">
-        <v>0</v>
-      </c>
-      <c r="I338" s="20">
-        <v>0</v>
-      </c>
-      <c r="J338" s="20">
-        <v>0</v>
-      </c>
-      <c r="K338" s="15"/>
-      <c r="L338" s="15"/>
+      <c r="H338" s="19">
+        <v>0</v>
+      </c>
+      <c r="I338" s="19">
+        <v>0</v>
+      </c>
+      <c r="J338" s="19">
+        <v>0</v>
+      </c>
+      <c r="K338" s="14"/>
+      <c r="L338" s="14"/>
+      <c r="M338" s="28"/>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
@@ -13345,7 +13354,7 @@
         <v>43257</v>
       </c>
       <c r="D339" s="1">
-        <f t="shared" si="45"/>
+        <f>C339-B339</f>
         <v>106</v>
       </c>
       <c r="E339" s="3" t="s">
@@ -13357,17 +13366,17 @@
       <c r="G339" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H339" s="20">
-        <v>0</v>
-      </c>
-      <c r="I339" s="20">
-        <v>0</v>
-      </c>
-      <c r="J339" s="20">
-        <v>0</v>
-      </c>
-      <c r="K339" s="15"/>
-      <c r="L339" s="15"/>
+      <c r="H339" s="19">
+        <v>0</v>
+      </c>
+      <c r="I339" s="19">
+        <v>0</v>
+      </c>
+      <c r="J339" s="19">
+        <v>0</v>
+      </c>
+      <c r="K339" s="14"/>
+      <c r="L339" s="14"/>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
@@ -13380,7 +13389,7 @@
         <v>43257</v>
       </c>
       <c r="D340" s="1">
-        <f t="shared" si="45"/>
+        <f>C340-B340</f>
         <v>106</v>
       </c>
       <c r="E340" s="1" t="s">
@@ -13392,17 +13401,17 @@
       <c r="G340" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H340" s="20">
-        <v>0</v>
-      </c>
-      <c r="I340" s="20">
-        <v>0</v>
-      </c>
-      <c r="J340" s="20">
-        <v>0</v>
-      </c>
-      <c r="K340" s="15"/>
-      <c r="L340" s="15"/>
+      <c r="H340" s="19">
+        <v>0</v>
+      </c>
+      <c r="I340" s="19">
+        <v>0</v>
+      </c>
+      <c r="J340" s="19">
+        <v>0</v>
+      </c>
+      <c r="K340" s="14"/>
+      <c r="L340" s="14"/>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
@@ -13415,7 +13424,7 @@
         <v>43259</v>
       </c>
       <c r="D341" s="1">
-        <f t="shared" ref="D341:D343" si="46">C341-B341</f>
+        <f>C341-B341</f>
         <v>108</v>
       </c>
       <c r="E341" s="3" t="s">
@@ -13427,17 +13436,18 @@
       <c r="G341" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H341" s="20">
-        <v>0</v>
-      </c>
-      <c r="I341" s="20">
-        <v>1</v>
-      </c>
-      <c r="J341" s="20">
-        <v>0</v>
-      </c>
-      <c r="K341" s="15"/>
-      <c r="L341" s="15"/>
+      <c r="H341" s="19">
+        <v>0</v>
+      </c>
+      <c r="I341" s="19">
+        <v>1</v>
+      </c>
+      <c r="J341" s="19">
+        <v>0</v>
+      </c>
+      <c r="K341" s="14"/>
+      <c r="L341" s="14"/>
+      <c r="M341" s="28"/>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
@@ -13450,7 +13460,7 @@
         <v>43259</v>
       </c>
       <c r="D342" s="1">
-        <f t="shared" si="46"/>
+        <f>C342-B342</f>
         <v>108</v>
       </c>
       <c r="E342" s="3" t="s">
@@ -13462,17 +13472,17 @@
       <c r="G342" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H342" s="20">
-        <v>0</v>
-      </c>
-      <c r="I342" s="20">
-        <v>0</v>
-      </c>
-      <c r="J342" s="20">
-        <v>0</v>
-      </c>
-      <c r="K342" s="15"/>
-      <c r="L342" s="15"/>
+      <c r="H342" s="19">
+        <v>0</v>
+      </c>
+      <c r="I342" s="19">
+        <v>0</v>
+      </c>
+      <c r="J342" s="19">
+        <v>0</v>
+      </c>
+      <c r="K342" s="14"/>
+      <c r="L342" s="14"/>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
@@ -13485,7 +13495,7 @@
         <v>43259</v>
       </c>
       <c r="D343" s="1">
-        <f t="shared" si="46"/>
+        <f>C343-B343</f>
         <v>108</v>
       </c>
       <c r="E343" s="1" t="s">
@@ -13497,17 +13507,17 @@
       <c r="G343" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H343" s="20">
-        <v>0</v>
-      </c>
-      <c r="I343" s="20">
-        <v>0</v>
-      </c>
-      <c r="J343" s="20">
-        <v>0</v>
-      </c>
-      <c r="K343" s="15"/>
-      <c r="L343" s="15"/>
+      <c r="H343" s="19">
+        <v>0</v>
+      </c>
+      <c r="I343" s="19">
+        <v>0</v>
+      </c>
+      <c r="J343" s="19">
+        <v>0</v>
+      </c>
+      <c r="K343" s="14"/>
+      <c r="L343" s="14"/>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
@@ -13520,7 +13530,7 @@
         <v>43262</v>
       </c>
       <c r="D344" s="1">
-        <f t="shared" ref="D344:D346" si="47">C344-B344</f>
+        <f>C344-B344</f>
         <v>111</v>
       </c>
       <c r="E344" s="3" t="s">
@@ -13532,18 +13542,18 @@
       <c r="G344" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H344" s="20">
-        <v>0</v>
-      </c>
-      <c r="I344" s="20">
-        <v>1</v>
-      </c>
-      <c r="J344" s="20">
-        <v>0</v>
-      </c>
-      <c r="K344" s="15"/>
-      <c r="L344" s="15"/>
-      <c r="M344" t="s">
+      <c r="H344" s="19">
+        <v>0</v>
+      </c>
+      <c r="I344" s="19">
+        <v>1</v>
+      </c>
+      <c r="J344" s="19">
+        <v>0</v>
+      </c>
+      <c r="K344" s="14"/>
+      <c r="L344" s="14"/>
+      <c r="M344" s="28" t="s">
         <v>30</v>
       </c>
     </row>
@@ -13558,7 +13568,7 @@
         <v>43262</v>
       </c>
       <c r="D345" s="1">
-        <f t="shared" si="47"/>
+        <f>C345-B345</f>
         <v>111</v>
       </c>
       <c r="E345" s="3" t="s">
@@ -13570,17 +13580,17 @@
       <c r="G345" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H345" s="20">
-        <v>0</v>
-      </c>
-      <c r="I345" s="20">
-        <v>1</v>
-      </c>
-      <c r="J345" s="20">
-        <v>0</v>
-      </c>
-      <c r="K345" s="15"/>
-      <c r="L345" s="15"/>
+      <c r="H345" s="19">
+        <v>0</v>
+      </c>
+      <c r="I345" s="19">
+        <v>1</v>
+      </c>
+      <c r="J345" s="19">
+        <v>0</v>
+      </c>
+      <c r="K345" s="14"/>
+      <c r="L345" s="14"/>
       <c r="M345" t="s">
         <v>30</v>
       </c>
@@ -13596,7 +13606,7 @@
         <v>43262</v>
       </c>
       <c r="D346" s="1">
-        <f t="shared" si="47"/>
+        <f>C346-B346</f>
         <v>111</v>
       </c>
       <c r="E346" s="1" t="s">
@@ -13608,17 +13618,17 @@
       <c r="G346" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H346" s="20">
-        <v>0</v>
-      </c>
-      <c r="I346" s="20">
-        <v>0</v>
-      </c>
-      <c r="J346" s="20">
-        <v>0</v>
-      </c>
-      <c r="K346" s="15"/>
-      <c r="L346" s="15"/>
+      <c r="H346" s="19">
+        <v>0</v>
+      </c>
+      <c r="I346" s="19">
+        <v>0</v>
+      </c>
+      <c r="J346" s="19">
+        <v>0</v>
+      </c>
+      <c r="K346" s="14"/>
+      <c r="L346" s="14"/>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
@@ -13631,7 +13641,7 @@
         <v>43264</v>
       </c>
       <c r="D347" s="1">
-        <f t="shared" ref="D347:D353" si="48">C347-B347</f>
+        <f>C347-B347</f>
         <v>113</v>
       </c>
       <c r="E347" s="1" t="s">
@@ -13643,17 +13653,17 @@
       <c r="G347" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H347" s="20">
-        <v>0</v>
-      </c>
-      <c r="I347" s="20">
-        <v>0</v>
-      </c>
-      <c r="J347" s="20">
-        <v>0</v>
-      </c>
-      <c r="K347" s="15"/>
-      <c r="L347" s="15"/>
+      <c r="H347" s="19">
+        <v>0</v>
+      </c>
+      <c r="I347" s="19">
+        <v>0</v>
+      </c>
+      <c r="J347" s="19">
+        <v>0</v>
+      </c>
+      <c r="K347" s="14"/>
+      <c r="L347" s="14"/>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
@@ -13666,7 +13676,7 @@
         <v>43266</v>
       </c>
       <c r="D348" s="1">
-        <f t="shared" si="48"/>
+        <f>C348-B348</f>
         <v>115</v>
       </c>
       <c r="E348" s="1" t="s">
@@ -13678,17 +13688,17 @@
       <c r="G348" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H348" s="20">
-        <v>0</v>
-      </c>
-      <c r="I348" s="20">
-        <v>0</v>
-      </c>
-      <c r="J348" s="20">
-        <v>0</v>
-      </c>
-      <c r="K348" s="15"/>
-      <c r="L348" s="15"/>
+      <c r="H348" s="19">
+        <v>0</v>
+      </c>
+      <c r="I348" s="19">
+        <v>0</v>
+      </c>
+      <c r="J348" s="19">
+        <v>0</v>
+      </c>
+      <c r="K348" s="14"/>
+      <c r="L348" s="14"/>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
@@ -13701,7 +13711,7 @@
         <v>43269</v>
       </c>
       <c r="D349" s="1">
-        <f t="shared" si="48"/>
+        <f>C349-B349</f>
         <v>118</v>
       </c>
       <c r="E349" s="1" t="s">
@@ -13713,17 +13723,17 @@
       <c r="G349" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H349" s="20">
-        <v>0</v>
-      </c>
-      <c r="I349" s="20">
-        <v>0</v>
-      </c>
-      <c r="J349" s="20">
-        <v>0</v>
-      </c>
-      <c r="K349" s="15"/>
-      <c r="L349" s="15"/>
+      <c r="H349" s="19">
+        <v>0</v>
+      </c>
+      <c r="I349" s="19">
+        <v>0</v>
+      </c>
+      <c r="J349" s="19">
+        <v>0</v>
+      </c>
+      <c r="K349" s="14"/>
+      <c r="L349" s="14"/>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
@@ -13736,7 +13746,7 @@
         <v>43271</v>
       </c>
       <c r="D350" s="1">
-        <f t="shared" si="48"/>
+        <f>C350-B350</f>
         <v>120</v>
       </c>
       <c r="E350" s="1" t="s">
@@ -13748,17 +13758,17 @@
       <c r="G350" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H350" s="20">
-        <v>0</v>
-      </c>
-      <c r="I350" s="20">
-        <v>0</v>
-      </c>
-      <c r="J350" s="20">
-        <v>0</v>
-      </c>
-      <c r="K350" s="15"/>
-      <c r="L350" s="15"/>
+      <c r="H350" s="19">
+        <v>0</v>
+      </c>
+      <c r="I350" s="19">
+        <v>0</v>
+      </c>
+      <c r="J350" s="19">
+        <v>0</v>
+      </c>
+      <c r="K350" s="14"/>
+      <c r="L350" s="14"/>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
@@ -13771,7 +13781,7 @@
         <v>43273</v>
       </c>
       <c r="D351" s="1">
-        <f t="shared" si="48"/>
+        <f>C351-B351</f>
         <v>122</v>
       </c>
       <c r="E351" s="1" t="s">
@@ -13783,17 +13793,17 @@
       <c r="G351" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H351" s="20">
-        <v>0</v>
-      </c>
-      <c r="I351" s="20">
-        <v>0</v>
-      </c>
-      <c r="J351" s="20">
-        <v>0</v>
-      </c>
-      <c r="K351" s="15"/>
-      <c r="L351" s="15"/>
+      <c r="H351" s="19">
+        <v>0</v>
+      </c>
+      <c r="I351" s="19">
+        <v>0</v>
+      </c>
+      <c r="J351" s="19">
+        <v>0</v>
+      </c>
+      <c r="K351" s="14"/>
+      <c r="L351" s="14"/>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
@@ -13806,7 +13816,7 @@
         <v>43276</v>
       </c>
       <c r="D352" s="1">
-        <f t="shared" si="48"/>
+        <f>C352-B352</f>
         <v>125</v>
       </c>
       <c r="E352" s="1" t="s">
@@ -13818,17 +13828,17 @@
       <c r="G352" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H352" s="20">
-        <v>0</v>
-      </c>
-      <c r="I352" s="20">
-        <v>0</v>
-      </c>
-      <c r="J352" s="20">
-        <v>0</v>
-      </c>
-      <c r="K352" s="15"/>
-      <c r="L352" s="15"/>
+      <c r="H352" s="19">
+        <v>0</v>
+      </c>
+      <c r="I352" s="19">
+        <v>0</v>
+      </c>
+      <c r="J352" s="19">
+        <v>0</v>
+      </c>
+      <c r="K352" s="14"/>
+      <c r="L352" s="14"/>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
@@ -13841,7 +13851,7 @@
         <v>43278</v>
       </c>
       <c r="D353" s="1">
-        <f t="shared" si="48"/>
+        <f>C353-B353</f>
         <v>127</v>
       </c>
       <c r="E353" s="1" t="s">
@@ -13853,17 +13863,17 @@
       <c r="G353" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H353" s="20">
-        <v>0</v>
-      </c>
-      <c r="I353" s="20">
-        <v>0</v>
-      </c>
-      <c r="J353" s="20">
-        <v>0</v>
-      </c>
-      <c r="K353" s="15"/>
-      <c r="L353" s="15"/>
+      <c r="H353" s="19">
+        <v>0</v>
+      </c>
+      <c r="I353" s="19">
+        <v>0</v>
+      </c>
+      <c r="J353" s="19">
+        <v>0</v>
+      </c>
+      <c r="K353" s="14"/>
+      <c r="L353" s="14"/>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
@@ -13876,7 +13886,7 @@
         <v>43280</v>
       </c>
       <c r="D354" s="1">
-        <f t="shared" ref="D354" si="49">C354-B354</f>
+        <f>C354-B354</f>
         <v>129</v>
       </c>
       <c r="E354" s="1" t="s">
@@ -13888,17 +13898,17 @@
       <c r="G354" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H354" s="20">
-        <v>0</v>
-      </c>
-      <c r="I354" s="20">
-        <v>0</v>
-      </c>
-      <c r="J354" s="20">
-        <v>0</v>
-      </c>
-      <c r="K354" s="15"/>
-      <c r="L354" s="15"/>
+      <c r="H354" s="19">
+        <v>0</v>
+      </c>
+      <c r="I354" s="19">
+        <v>0</v>
+      </c>
+      <c r="J354" s="19">
+        <v>0</v>
+      </c>
+      <c r="K354" s="14"/>
+      <c r="L354" s="14"/>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
@@ -13911,7 +13921,7 @@
         <v>43283</v>
       </c>
       <c r="D355" s="1">
-        <f t="shared" ref="D355" si="50">C355-B355</f>
+        <f>C355-B355</f>
         <v>132</v>
       </c>
       <c r="E355" s="1" t="s">
@@ -13923,17 +13933,17 @@
       <c r="G355" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H355" s="20">
-        <v>0</v>
-      </c>
-      <c r="I355" s="20">
-        <v>0</v>
-      </c>
-      <c r="J355" s="20">
-        <v>0</v>
-      </c>
-      <c r="K355" s="15"/>
-      <c r="L355" s="15"/>
+      <c r="H355" s="19">
+        <v>0</v>
+      </c>
+      <c r="I355" s="19">
+        <v>0</v>
+      </c>
+      <c r="J355" s="19">
+        <v>0</v>
+      </c>
+      <c r="K355" s="14"/>
+      <c r="L355" s="14"/>
       <c r="M355" t="s">
         <v>37</v>
       </c>
